--- a/data_month/zb/价格指数/工业生产者购进价格指数/工业生产者购进价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/工业生产者购进价格指数/工业生产者购进价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,1598 +488,1598 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.69540000000001</v>
+        <v>100.7497</v>
       </c>
       <c r="C2" t="n">
-        <v>99.2955</v>
+        <v>101.0374</v>
       </c>
       <c r="D2" t="n">
-        <v>99.4538</v>
+        <v>100.6205</v>
       </c>
       <c r="E2" t="n">
-        <v>99.2915</v>
+        <v>101.164</v>
       </c>
       <c r="F2" t="n">
-        <v>99.8844</v>
+        <v>100.9715</v>
       </c>
       <c r="G2" t="n">
-        <v>95.1386</v>
+        <v>102.3746</v>
       </c>
       <c r="H2" t="n">
-        <v>100.1894</v>
+        <v>100.4272</v>
       </c>
       <c r="I2" t="n">
-        <v>99.7346</v>
+        <v>101.8091</v>
       </c>
       <c r="J2" t="n">
-        <v>99.9776</v>
+        <v>100.7361</v>
       </c>
       <c r="K2" t="n">
-        <v>99.19240000000001</v>
+        <v>101.4406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.61409999999999</v>
+        <v>100.502</v>
       </c>
       <c r="C3" t="n">
-        <v>98.59820000000001</v>
+        <v>101.7043</v>
       </c>
       <c r="D3" t="n">
-        <v>98.47329999999999</v>
+        <v>101.3375</v>
       </c>
       <c r="E3" t="n">
-        <v>99.25660000000001</v>
+        <v>101.1505</v>
       </c>
       <c r="F3" t="n">
-        <v>100.0255</v>
+        <v>99.97490000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>99.5457</v>
+        <v>102.1236</v>
       </c>
       <c r="H3" t="n">
-        <v>99.6741</v>
+        <v>100.2844</v>
       </c>
       <c r="I3" t="n">
-        <v>99.86839999999999</v>
+        <v>101.1468</v>
       </c>
       <c r="J3" t="n">
-        <v>99.52670000000001</v>
+        <v>101.508</v>
       </c>
       <c r="K3" t="n">
-        <v>98.0491</v>
+        <v>101.9375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.64749999999999</v>
+        <v>100.6241</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5012</v>
+        <v>101.0862</v>
       </c>
       <c r="D4" t="n">
-        <v>98.7362</v>
+        <v>101.144</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5634</v>
+        <v>100.9899</v>
       </c>
       <c r="F4" t="n">
-        <v>99.7799</v>
+        <v>100.2167</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6469</v>
+        <v>100.9322</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5819</v>
+        <v>100.6145</v>
       </c>
       <c r="I4" t="n">
-        <v>100.627</v>
+        <v>101.6421</v>
       </c>
       <c r="J4" t="n">
-        <v>99.7861</v>
+        <v>101.5062</v>
       </c>
       <c r="K4" t="n">
-        <v>98.76779999999999</v>
+        <v>100.6464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.7497</v>
+        <v>100.4348</v>
       </c>
       <c r="C5" t="n">
-        <v>101.0374</v>
+        <v>100.4661</v>
       </c>
       <c r="D5" t="n">
-        <v>100.6205</v>
+        <v>100.9097</v>
       </c>
       <c r="E5" t="n">
-        <v>101.164</v>
+        <v>100.9751</v>
       </c>
       <c r="F5" t="n">
-        <v>100.9715</v>
+        <v>100.8033</v>
       </c>
       <c r="G5" t="n">
-        <v>102.3746</v>
+        <v>101.0427</v>
       </c>
       <c r="H5" t="n">
-        <v>100.4272</v>
+        <v>100.4292</v>
       </c>
       <c r="I5" t="n">
-        <v>101.8091</v>
+        <v>102.3848</v>
       </c>
       <c r="J5" t="n">
-        <v>100.7361</v>
+        <v>100.737</v>
       </c>
       <c r="K5" t="n">
-        <v>101.4406</v>
+        <v>100.485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.502</v>
+        <v>100.0953</v>
       </c>
       <c r="C6" t="n">
-        <v>101.7043</v>
+        <v>100.2891</v>
       </c>
       <c r="D6" t="n">
-        <v>101.3375</v>
+        <v>100.3979</v>
       </c>
       <c r="E6" t="n">
-        <v>101.1505</v>
+        <v>100.4651</v>
       </c>
       <c r="F6" t="n">
-        <v>99.97490000000001</v>
+        <v>101.1352</v>
       </c>
       <c r="G6" t="n">
-        <v>102.1236</v>
+        <v>99.8259</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2844</v>
+        <v>100.2477</v>
       </c>
       <c r="I6" t="n">
-        <v>101.1468</v>
+        <v>101.3531</v>
       </c>
       <c r="J6" t="n">
-        <v>101.508</v>
+        <v>99.9233</v>
       </c>
       <c r="K6" t="n">
-        <v>101.9375</v>
+        <v>100.3855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.6241</v>
+        <v>100.0129</v>
       </c>
       <c r="C7" t="n">
-        <v>101.0862</v>
+        <v>101.4787</v>
       </c>
       <c r="D7" t="n">
-        <v>101.144</v>
+        <v>99.872</v>
       </c>
       <c r="E7" t="n">
-        <v>100.9899</v>
+        <v>100.1655</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2167</v>
+        <v>100.5048</v>
       </c>
       <c r="G7" t="n">
-        <v>100.9322</v>
+        <v>100.2895</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6145</v>
+        <v>100.0993</v>
       </c>
       <c r="I7" t="n">
-        <v>101.6421</v>
+        <v>99.95910000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>101.5062</v>
+        <v>100.2476</v>
       </c>
       <c r="K7" t="n">
-        <v>100.6464</v>
+        <v>99.98560000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.4348</v>
+        <v>100.1125</v>
       </c>
       <c r="C8" t="n">
-        <v>100.4661</v>
+        <v>100.9733</v>
       </c>
       <c r="D8" t="n">
-        <v>100.9097</v>
+        <v>99.9226</v>
       </c>
       <c r="E8" t="n">
-        <v>100.9751</v>
+        <v>100.1079</v>
       </c>
       <c r="F8" t="n">
-        <v>100.8033</v>
+        <v>100.3577</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0427</v>
+        <v>101.285</v>
       </c>
       <c r="H8" t="n">
-        <v>100.4292</v>
+        <v>100.2769</v>
       </c>
       <c r="I8" t="n">
-        <v>102.3848</v>
+        <v>99.5311</v>
       </c>
       <c r="J8" t="n">
-        <v>100.737</v>
+        <v>99.66119999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>100.485</v>
+        <v>100.0056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.0953</v>
+        <v>100.2966</v>
       </c>
       <c r="C9" t="n">
-        <v>100.2891</v>
+        <v>100.089</v>
       </c>
       <c r="D9" t="n">
-        <v>100.3979</v>
+        <v>100.2887</v>
       </c>
       <c r="E9" t="n">
-        <v>100.4651</v>
+        <v>100.1791</v>
       </c>
       <c r="F9" t="n">
-        <v>101.1352</v>
+        <v>100.1179</v>
       </c>
       <c r="G9" t="n">
-        <v>99.8259</v>
+        <v>100.0258</v>
       </c>
       <c r="H9" t="n">
-        <v>100.2477</v>
+        <v>100.485</v>
       </c>
       <c r="I9" t="n">
-        <v>101.3531</v>
+        <v>100.1255</v>
       </c>
       <c r="J9" t="n">
-        <v>99.9233</v>
+        <v>99.2647</v>
       </c>
       <c r="K9" t="n">
-        <v>100.3855</v>
+        <v>100.3976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0129</v>
+        <v>100.0603</v>
       </c>
       <c r="C10" t="n">
-        <v>101.4787</v>
+        <v>100.3428</v>
       </c>
       <c r="D10" t="n">
-        <v>99.872</v>
+        <v>100.3018</v>
       </c>
       <c r="E10" t="n">
-        <v>100.1655</v>
+        <v>100.1144</v>
       </c>
       <c r="F10" t="n">
-        <v>100.5048</v>
+        <v>100.1387</v>
       </c>
       <c r="G10" t="n">
-        <v>100.2895</v>
+        <v>99.6065</v>
       </c>
       <c r="H10" t="n">
-        <v>100.0993</v>
+        <v>100.1267</v>
       </c>
       <c r="I10" t="n">
-        <v>99.95910000000001</v>
+        <v>99.9224</v>
       </c>
       <c r="J10" t="n">
-        <v>100.2476</v>
+        <v>100.8134</v>
       </c>
       <c r="K10" t="n">
-        <v>99.98560000000001</v>
+        <v>100.1865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.1125</v>
+        <v>99.69540000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>100.9733</v>
+        <v>99.2955</v>
       </c>
       <c r="D11" t="n">
-        <v>99.9226</v>
+        <v>99.4538</v>
       </c>
       <c r="E11" t="n">
-        <v>100.1079</v>
+        <v>99.2915</v>
       </c>
       <c r="F11" t="n">
-        <v>100.3577</v>
+        <v>99.8844</v>
       </c>
       <c r="G11" t="n">
-        <v>101.285</v>
+        <v>95.1386</v>
       </c>
       <c r="H11" t="n">
-        <v>100.2769</v>
+        <v>100.1894</v>
       </c>
       <c r="I11" t="n">
-        <v>99.5311</v>
+        <v>99.7346</v>
       </c>
       <c r="J11" t="n">
-        <v>99.66119999999999</v>
+        <v>99.9776</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0056</v>
+        <v>99.19240000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.2966</v>
+        <v>99.61409999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>100.089</v>
+        <v>98.59820000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>100.2887</v>
+        <v>98.47329999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>100.1791</v>
+        <v>99.25660000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>100.1179</v>
+        <v>100.0255</v>
       </c>
       <c r="G12" t="n">
-        <v>100.0258</v>
+        <v>99.5457</v>
       </c>
       <c r="H12" t="n">
-        <v>100.485</v>
+        <v>99.6741</v>
       </c>
       <c r="I12" t="n">
-        <v>100.1255</v>
+        <v>99.86839999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>99.2647</v>
+        <v>99.52670000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>100.3976</v>
+        <v>98.0491</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.0603</v>
+        <v>99.64749999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>100.3428</v>
+        <v>99.5012</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3018</v>
+        <v>98.7362</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1144</v>
+        <v>99.5634</v>
       </c>
       <c r="F13" t="n">
-        <v>100.1387</v>
+        <v>99.7799</v>
       </c>
       <c r="G13" t="n">
-        <v>99.6065</v>
+        <v>98.6469</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1267</v>
+        <v>99.5819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.9224</v>
+        <v>100.627</v>
       </c>
       <c r="J13" t="n">
-        <v>100.8134</v>
+        <v>99.7861</v>
       </c>
       <c r="K13" t="n">
-        <v>100.1865</v>
+        <v>98.76779999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.0859</v>
+        <v>99.9408</v>
       </c>
       <c r="C14" t="n">
-        <v>99.94280000000001</v>
+        <v>100.0096</v>
       </c>
       <c r="D14" t="n">
-        <v>100.3551</v>
+        <v>99.5498</v>
       </c>
       <c r="E14" t="n">
-        <v>100.1385</v>
+        <v>99.7479</v>
       </c>
       <c r="F14" t="n">
-        <v>100.9123</v>
+        <v>99.5868</v>
       </c>
       <c r="G14" t="n">
-        <v>100.5268</v>
+        <v>99.161</v>
       </c>
       <c r="H14" t="n">
-        <v>99.8308</v>
+        <v>99.78919999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0805</v>
+        <v>100.1997</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0835</v>
+        <v>99.678</v>
       </c>
       <c r="K14" t="n">
-        <v>99.8848</v>
+        <v>98.9117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.8398</v>
+        <v>99.9122</v>
       </c>
       <c r="C15" t="n">
-        <v>99.76860000000001</v>
+        <v>99.905</v>
       </c>
       <c r="D15" t="n">
-        <v>99.6765</v>
+        <v>100.1244</v>
       </c>
       <c r="E15" t="n">
-        <v>99.7824</v>
+        <v>100.1482</v>
       </c>
       <c r="F15" t="n">
-        <v>100.2583</v>
+        <v>99.9739</v>
       </c>
       <c r="G15" t="n">
-        <v>98.7291</v>
+        <v>101.3062</v>
       </c>
       <c r="H15" t="n">
-        <v>99.9455</v>
+        <v>100.0509</v>
       </c>
       <c r="I15" t="n">
-        <v>99.7741</v>
+        <v>100.5416</v>
       </c>
       <c r="J15" t="n">
-        <v>99.9868</v>
+        <v>100.1821</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0871</v>
+        <v>99.6181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.92700000000001</v>
+        <v>99.7597</v>
       </c>
       <c r="C16" t="n">
-        <v>100.5055</v>
+        <v>100.0015</v>
       </c>
       <c r="D16" t="n">
-        <v>99.6216</v>
+        <v>100.0471</v>
       </c>
       <c r="E16" t="n">
-        <v>99.92149999999999</v>
+        <v>100.1137</v>
       </c>
       <c r="F16" t="n">
-        <v>99.79000000000001</v>
+        <v>100.0548</v>
       </c>
       <c r="G16" t="n">
-        <v>100.1006</v>
+        <v>100.2413</v>
       </c>
       <c r="H16" t="n">
-        <v>99.83369999999999</v>
+        <v>100.1265</v>
       </c>
       <c r="I16" t="n">
-        <v>99.7317</v>
+        <v>100.8026</v>
       </c>
       <c r="J16" t="n">
-        <v>100.1004</v>
+        <v>100.184</v>
       </c>
       <c r="K16" t="n">
-        <v>100.0247</v>
+        <v>99.7574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.9408</v>
+        <v>99.9444</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0096</v>
+        <v>100.093</v>
       </c>
       <c r="D17" t="n">
-        <v>99.5498</v>
+        <v>99.8331</v>
       </c>
       <c r="E17" t="n">
-        <v>99.7479</v>
+        <v>100.0421</v>
       </c>
       <c r="F17" t="n">
-        <v>99.5868</v>
+        <v>99.6931</v>
       </c>
       <c r="G17" t="n">
-        <v>99.161</v>
+        <v>99.20440000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>99.78919999999999</v>
+        <v>100.1515</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1997</v>
+        <v>100.6919</v>
       </c>
       <c r="J17" t="n">
-        <v>99.678</v>
+        <v>99.8257</v>
       </c>
       <c r="K17" t="n">
-        <v>98.9117</v>
+        <v>99.9353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.9122</v>
+        <v>99.9311</v>
       </c>
       <c r="C18" t="n">
-        <v>99.905</v>
+        <v>100.0783</v>
       </c>
       <c r="D18" t="n">
-        <v>100.1244</v>
+        <v>99.4986</v>
       </c>
       <c r="E18" t="n">
-        <v>100.1482</v>
+        <v>99.7116</v>
       </c>
       <c r="F18" t="n">
-        <v>99.9739</v>
+        <v>99.68559999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>101.3062</v>
+        <v>99.28019999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>100.0509</v>
+        <v>100.1155</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5416</v>
+        <v>99.6139</v>
       </c>
       <c r="J18" t="n">
-        <v>100.1821</v>
+        <v>99.7175</v>
       </c>
       <c r="K18" t="n">
-        <v>99.6181</v>
+        <v>99.4556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.7597</v>
+        <v>99.8056</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0015</v>
+        <v>99.8224</v>
       </c>
       <c r="D19" t="n">
-        <v>100.0471</v>
+        <v>98.7028</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1137</v>
+        <v>99.1819</v>
       </c>
       <c r="F19" t="n">
-        <v>100.0548</v>
+        <v>99.7166</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2413</v>
+        <v>98.87050000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1265</v>
+        <v>99.8242</v>
       </c>
       <c r="I19" t="n">
-        <v>100.8026</v>
+        <v>98.38549999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>100.184</v>
+        <v>99.5245</v>
       </c>
       <c r="K19" t="n">
-        <v>99.7574</v>
+        <v>98.8381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.9444</v>
+        <v>99.7719</v>
       </c>
       <c r="C20" t="n">
-        <v>100.093</v>
+        <v>99.9846</v>
       </c>
       <c r="D20" t="n">
-        <v>99.8331</v>
+        <v>98.8694</v>
       </c>
       <c r="E20" t="n">
-        <v>100.0421</v>
+        <v>99.1538</v>
       </c>
       <c r="F20" t="n">
-        <v>99.6931</v>
+        <v>99.5919</v>
       </c>
       <c r="G20" t="n">
-        <v>99.20440000000001</v>
+        <v>99.62390000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>100.1515</v>
+        <v>99.79170000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>100.6919</v>
+        <v>97.8083</v>
       </c>
       <c r="J20" t="n">
-        <v>99.8257</v>
+        <v>99.72020000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>99.9353</v>
+        <v>98.9502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.9311</v>
+        <v>99.89790000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>100.0783</v>
+        <v>100.5236</v>
       </c>
       <c r="D21" t="n">
-        <v>99.4986</v>
+        <v>99.77079999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>99.7116</v>
+        <v>99.4987</v>
       </c>
       <c r="F21" t="n">
-        <v>99.68559999999999</v>
+        <v>99.4924</v>
       </c>
       <c r="G21" t="n">
-        <v>99.28019999999999</v>
+        <v>99.1631</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1155</v>
+        <v>99.6862</v>
       </c>
       <c r="I21" t="n">
-        <v>99.6139</v>
+        <v>99.1974</v>
       </c>
       <c r="J21" t="n">
-        <v>99.7175</v>
+        <v>99.7017</v>
       </c>
       <c r="K21" t="n">
-        <v>99.4556</v>
+        <v>98.0517</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.8056</v>
+        <v>100.0793</v>
       </c>
       <c r="C22" t="n">
-        <v>99.8224</v>
+        <v>100.9256</v>
       </c>
       <c r="D22" t="n">
-        <v>98.7028</v>
+        <v>100.2466</v>
       </c>
       <c r="E22" t="n">
-        <v>99.1819</v>
+        <v>100.1203</v>
       </c>
       <c r="F22" t="n">
-        <v>99.7166</v>
+        <v>99.8622</v>
       </c>
       <c r="G22" t="n">
-        <v>98.87050000000001</v>
+        <v>101.3504</v>
       </c>
       <c r="H22" t="n">
-        <v>99.8242</v>
+        <v>100.0494</v>
       </c>
       <c r="I22" t="n">
-        <v>98.38549999999999</v>
+        <v>100.7421</v>
       </c>
       <c r="J22" t="n">
-        <v>99.5245</v>
+        <v>99.83580000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>98.8381</v>
+        <v>97.821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.7719</v>
+        <v>100.0859</v>
       </c>
       <c r="C23" t="n">
-        <v>99.9846</v>
+        <v>99.94280000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>98.8694</v>
+        <v>100.3551</v>
       </c>
       <c r="E23" t="n">
-        <v>99.1538</v>
+        <v>100.1385</v>
       </c>
       <c r="F23" t="n">
-        <v>99.5919</v>
+        <v>100.9123</v>
       </c>
       <c r="G23" t="n">
-        <v>99.62390000000001</v>
+        <v>100.5268</v>
       </c>
       <c r="H23" t="n">
-        <v>99.79170000000001</v>
+        <v>99.8308</v>
       </c>
       <c r="I23" t="n">
-        <v>97.8083</v>
+        <v>100.0805</v>
       </c>
       <c r="J23" t="n">
-        <v>99.72020000000001</v>
+        <v>100.0835</v>
       </c>
       <c r="K23" t="n">
-        <v>98.9502</v>
+        <v>99.8848</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.89790000000001</v>
+        <v>99.8398</v>
       </c>
       <c r="C24" t="n">
-        <v>100.5236</v>
+        <v>99.76860000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>99.77079999999999</v>
+        <v>99.6765</v>
       </c>
       <c r="E24" t="n">
-        <v>99.4987</v>
+        <v>99.7824</v>
       </c>
       <c r="F24" t="n">
-        <v>99.4924</v>
+        <v>100.2583</v>
       </c>
       <c r="G24" t="n">
-        <v>99.1631</v>
+        <v>98.7291</v>
       </c>
       <c r="H24" t="n">
-        <v>99.6862</v>
+        <v>99.9455</v>
       </c>
       <c r="I24" t="n">
-        <v>99.1974</v>
+        <v>99.7741</v>
       </c>
       <c r="J24" t="n">
-        <v>99.7017</v>
+        <v>99.9868</v>
       </c>
       <c r="K24" t="n">
-        <v>98.0517</v>
+        <v>100.0871</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.0793</v>
+        <v>99.92700000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>100.9256</v>
+        <v>100.5055</v>
       </c>
       <c r="D25" t="n">
-        <v>100.2466</v>
+        <v>99.6216</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1203</v>
+        <v>99.92149999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>99.8622</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>101.3504</v>
+        <v>100.1006</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0494</v>
+        <v>99.83369999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>100.7421</v>
+        <v>99.7317</v>
       </c>
       <c r="J25" t="n">
-        <v>99.83580000000001</v>
+        <v>100.1004</v>
       </c>
       <c r="K25" t="n">
-        <v>97.821</v>
+        <v>100.0247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>100.0898</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>100.936</v>
       </c>
       <c r="D26" t="n">
-        <v>100.2</v>
+        <v>100.1301</v>
       </c>
       <c r="E26" t="n">
-        <v>100.1</v>
+        <v>100.2569</v>
       </c>
       <c r="F26" t="n">
-        <v>100.4</v>
+        <v>99.5393</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>100.1305</v>
       </c>
       <c r="H26" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1197</v>
       </c>
       <c r="I26" t="n">
-        <v>100.2</v>
+        <v>100.0933</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>100.2423</v>
       </c>
       <c r="K26" t="n">
-        <v>99.7</v>
+        <v>100.9613</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>99.979</v>
       </c>
       <c r="C27" t="n">
-        <v>100</v>
+        <v>99.9734</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>100.3061</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>100.1914</v>
       </c>
       <c r="F27" t="n">
-        <v>100.5</v>
+        <v>99.6857</v>
       </c>
       <c r="G27" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3454</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>100.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>100.2123</v>
       </c>
       <c r="J27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1777</v>
       </c>
       <c r="K27" t="n">
-        <v>99.8</v>
+        <v>100.846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>99.937</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>99.3891</v>
       </c>
       <c r="D28" t="n">
-        <v>100.1</v>
+        <v>99.80970000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>99.94759999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>100.7</v>
+        <v>99.71169999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59999999999999</v>
+        <v>98.9071</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>100.3614</v>
       </c>
       <c r="I28" t="n">
-        <v>100.1</v>
+        <v>100.4815</v>
       </c>
       <c r="J28" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1482</v>
       </c>
       <c r="K28" t="n">
-        <v>100.1</v>
+        <v>100.095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.0898</v>
+        <v>99.8511</v>
       </c>
       <c r="C29" t="n">
-        <v>100.936</v>
+        <v>99.1448</v>
       </c>
       <c r="D29" t="n">
-        <v>100.1301</v>
+        <v>99.2004</v>
       </c>
       <c r="E29" t="n">
-        <v>100.2569</v>
+        <v>99.3738</v>
       </c>
       <c r="F29" t="n">
-        <v>99.5393</v>
+        <v>99.76519999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>100.1305</v>
+        <v>98.2259</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1197</v>
+        <v>99.80070000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>100.0933</v>
+        <v>98.9605</v>
       </c>
       <c r="J29" t="n">
-        <v>100.2423</v>
+        <v>100.0868</v>
       </c>
       <c r="K29" t="n">
-        <v>100.9613</v>
+        <v>99.4208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.979</v>
+        <v>99.73399999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>99.9734</v>
+        <v>99.6849</v>
       </c>
       <c r="D30" t="n">
-        <v>100.3061</v>
+        <v>99.45050000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>100.1914</v>
+        <v>99.4085</v>
       </c>
       <c r="F30" t="n">
-        <v>99.6857</v>
+        <v>100.0398</v>
       </c>
       <c r="G30" t="n">
-        <v>100.3454</v>
+        <v>98.9127</v>
       </c>
       <c r="H30" t="n">
-        <v>100.0431</v>
+        <v>99.8976</v>
       </c>
       <c r="I30" t="n">
-        <v>100.2123</v>
+        <v>98.85599999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>100.1777</v>
+        <v>99.95359999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>100.846</v>
+        <v>99.02160000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.937</v>
+        <v>99.8386</v>
       </c>
       <c r="C31" t="n">
-        <v>99.3891</v>
+        <v>100.7527</v>
       </c>
       <c r="D31" t="n">
-        <v>99.80970000000001</v>
+        <v>99.5305</v>
       </c>
       <c r="E31" t="n">
-        <v>99.94759999999999</v>
+        <v>99.5322</v>
       </c>
       <c r="F31" t="n">
-        <v>99.71169999999999</v>
+        <v>99.8556</v>
       </c>
       <c r="G31" t="n">
-        <v>98.9071</v>
+        <v>99.3994</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3614</v>
+        <v>99.8663</v>
       </c>
       <c r="I31" t="n">
-        <v>100.4815</v>
+        <v>99.0688</v>
       </c>
       <c r="J31" t="n">
-        <v>100.1482</v>
+        <v>99.9551</v>
       </c>
       <c r="K31" t="n">
-        <v>100.095</v>
+        <v>98.371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.8511</v>
+        <v>99.776</v>
       </c>
       <c r="C32" t="n">
-        <v>99.1448</v>
+        <v>100.268</v>
       </c>
       <c r="D32" t="n">
-        <v>99.2004</v>
+        <v>99.50700000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>99.3738</v>
+        <v>99.58320000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>99.76519999999999</v>
+        <v>99.69329999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>98.2259</v>
+        <v>98.3468</v>
       </c>
       <c r="H32" t="n">
-        <v>99.80070000000001</v>
+        <v>99.98699999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>98.9605</v>
+        <v>99.4033</v>
       </c>
       <c r="J32" t="n">
-        <v>100.0868</v>
+        <v>99.92610000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>99.4208</v>
+        <v>99.3905</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.73399999999999</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>99.6849</v>
+        <v>100.6</v>
       </c>
       <c r="D33" t="n">
-        <v>99.45050000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>99.4085</v>
+        <v>100.1</v>
       </c>
       <c r="F33" t="n">
-        <v>100.0398</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>98.9127</v>
+        <v>100.5</v>
       </c>
       <c r="H33" t="n">
-        <v>99.8976</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>98.85599999999999</v>
+        <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>99.95359999999999</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>99.02160000000001</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.8386</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>100.7527</v>
+        <v>100.4</v>
       </c>
       <c r="D34" t="n">
-        <v>99.5305</v>
+        <v>100.2</v>
       </c>
       <c r="E34" t="n">
-        <v>99.5322</v>
+        <v>100.2</v>
       </c>
       <c r="F34" t="n">
-        <v>99.8556</v>
+        <v>100.1</v>
       </c>
       <c r="G34" t="n">
-        <v>99.3994</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>99.8663</v>
+        <v>100.1</v>
       </c>
       <c r="I34" t="n">
-        <v>99.0688</v>
+        <v>100.3</v>
       </c>
       <c r="J34" t="n">
-        <v>99.9551</v>
+        <v>100.1</v>
       </c>
       <c r="K34" t="n">
-        <v>98.371</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.776</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>100.268</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>99.50700000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E35" t="n">
-        <v>99.58320000000001</v>
+        <v>100.1</v>
       </c>
       <c r="F35" t="n">
-        <v>99.69329999999999</v>
+        <v>100.4</v>
       </c>
       <c r="G35" t="n">
-        <v>98.3468</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>99.98699999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>99.4033</v>
+        <v>100.2</v>
       </c>
       <c r="J35" t="n">
-        <v>99.92610000000001</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>99.3905</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="G36" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E37" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="J37" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="G38" t="n">
-        <v>99</v>
+        <v>100.1</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="J38" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K38" t="n">
         <v>99.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>99.8</v>
       </c>
       <c r="C39" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D39" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E39" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G39" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J39" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>99.8</v>
       </c>
       <c r="C40" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E40" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="F40" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>99.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="J40" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K40" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C41" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="D41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100.3</v>
-      </c>
       <c r="J41" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="K41" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>99.3</v>
+        <v>100.8</v>
       </c>
       <c r="D42" t="n">
         <v>99.8</v>
       </c>
       <c r="E42" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F42" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="G42" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K42" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>100</v>
-      </c>
-      <c r="K42" t="n">
-        <v>99.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C43" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="D43" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="E43" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="G43" t="n">
-        <v>98.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J43" t="n">
         <v>99.8</v>
       </c>
       <c r="K43" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="n">
         <v>99.7</v>
       </c>
-      <c r="C44" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G44" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>100</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K44" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2089,22 +2089,22 @@
         <v>100.8</v>
       </c>
       <c r="D45" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="E45" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="H45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I45" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J45" t="n">
         <v>99.90000000000001</v>
@@ -2116,35 +2116,35 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D46" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="E46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="G46" t="n">
         <v>100.1</v>
       </c>
       <c r="H46" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K46" t="n">
         <v>99</v>
@@ -2153,109 +2153,109 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C47" t="n">
-        <v>100.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>100.9</v>
+        <v>99</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
       </c>
       <c r="I47" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J47" t="n">
         <v>99.7</v>
       </c>
-      <c r="J47" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="K47" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C48" t="n">
-        <v>100.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>100.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F48" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="K48" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C49" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E49" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F49" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="F49" t="n">
-        <v>99.8</v>
-      </c>
       <c r="G49" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="H49" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="J49" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K49" t="n">
         <v>99</v>
@@ -2264,257 +2264,257 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C50" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D50" t="n">
-        <v>99.3</v>
+        <v>98</v>
       </c>
       <c r="E50" t="n">
-        <v>99.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="F50" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>99.2</v>
+        <v>98.2</v>
       </c>
       <c r="H50" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>99.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="J50" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.6476</v>
+        <v>99.7</v>
       </c>
       <c r="C51" t="n">
-        <v>99.17570000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D51" t="n">
-        <v>99.26179999999999</v>
+        <v>99</v>
       </c>
       <c r="E51" t="n">
-        <v>99.2791</v>
+        <v>99</v>
       </c>
       <c r="F51" t="n">
-        <v>99.6652</v>
+        <v>99.7</v>
       </c>
       <c r="G51" t="n">
-        <v>97.4924</v>
+        <v>98.5</v>
       </c>
       <c r="H51" t="n">
-        <v>99.803</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>99.5116</v>
+        <v>97.5</v>
       </c>
       <c r="J51" t="n">
-        <v>99.7762</v>
+        <v>99.8</v>
       </c>
       <c r="K51" t="n">
-        <v>98.5335</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.7038</v>
+        <v>99.8</v>
       </c>
       <c r="C52" t="n">
-        <v>100.0068</v>
+        <v>99.5</v>
       </c>
       <c r="D52" t="n">
-        <v>99.17319999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E52" t="n">
-        <v>99.2504</v>
+        <v>99.7</v>
       </c>
       <c r="F52" t="n">
-        <v>99.7547</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>98.35380000000001</v>
+        <v>99.5</v>
       </c>
       <c r="H52" t="n">
-        <v>99.7847</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>98.7928</v>
+        <v>100.3</v>
       </c>
       <c r="J52" t="n">
-        <v>99.9649</v>
+        <v>99.8</v>
       </c>
       <c r="K52" t="n">
-        <v>98.1217</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C53" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="D53" t="n">
-        <v>98</v>
+        <v>100.2</v>
       </c>
       <c r="E53" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="F53" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>98.2</v>
+        <v>100.4</v>
       </c>
       <c r="H53" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>97.2</v>
+        <v>99.7</v>
       </c>
       <c r="J53" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="D54" t="n">
-        <v>99</v>
+        <v>100.4</v>
       </c>
       <c r="E54" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="G54" t="n">
-        <v>98.5</v>
+        <v>100.8</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>97.5</v>
+        <v>99.8</v>
       </c>
       <c r="J54" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>99.8</v>
       </c>
       <c r="C55" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="D55" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F55" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>99.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="J55" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="K55" t="n">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C56" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="D56" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="G56" t="n">
-        <v>100.4</v>
+        <v>98.5</v>
       </c>
       <c r="H56" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="J56" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="K56" t="n">
         <v>98.40000000000001</v>
@@ -2523,1626 +2523,1626 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C57" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="D57" t="n">
-        <v>100.4</v>
+        <v>99</v>
       </c>
       <c r="E57" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="F57" t="n">
         <v>99.5</v>
       </c>
       <c r="G57" t="n">
-        <v>100.8</v>
+        <v>98</v>
       </c>
       <c r="H57" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I57" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
       <c r="D58" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="E58" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="G58" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H58" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I58" t="n">
-        <v>100.2</v>
+        <v>98.5</v>
       </c>
       <c r="J58" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C59" t="n">
-        <v>100.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E59" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="G59" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="H59" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I59" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J59" t="n">
         <v>99.8</v>
       </c>
       <c r="K59" t="n">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.7</v>
+        <v>99.6476</v>
       </c>
       <c r="C60" t="n">
-        <v>100.5</v>
+        <v>99.17570000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>99</v>
+        <v>99.26179999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>99.3</v>
+        <v>99.2791</v>
       </c>
       <c r="F60" t="n">
-        <v>99.5</v>
+        <v>99.6652</v>
       </c>
       <c r="G60" t="n">
-        <v>98</v>
+        <v>97.4924</v>
       </c>
       <c r="H60" t="n">
-        <v>100.1</v>
+        <v>99.803</v>
       </c>
       <c r="I60" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5116</v>
       </c>
       <c r="J60" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7762</v>
       </c>
       <c r="K60" t="n">
-        <v>99</v>
+        <v>98.5335</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7038</v>
       </c>
       <c r="C61" t="n">
-        <v>99.2</v>
+        <v>100.0068</v>
       </c>
       <c r="D61" t="n">
-        <v>99.2</v>
+        <v>99.17319999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2504</v>
       </c>
       <c r="F61" t="n">
-        <v>99.5</v>
+        <v>99.7547</v>
       </c>
       <c r="G61" t="n">
-        <v>99.8</v>
+        <v>98.35380000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>100.1</v>
+        <v>99.7847</v>
       </c>
       <c r="I61" t="n">
-        <v>98.5</v>
+        <v>98.7928</v>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>99.9649</v>
       </c>
       <c r="K61" t="n">
-        <v>99.09999999999999</v>
+        <v>98.1217</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.299999999999</v>
+        <v>99.7985</v>
       </c>
       <c r="C62" t="n">
-        <v>99.5</v>
+        <v>100.2931</v>
       </c>
       <c r="D62" t="n">
-        <v>100.799999999999</v>
+        <v>99.3275</v>
       </c>
       <c r="E62" t="n">
-        <v>100.9</v>
+        <v>99.3365</v>
       </c>
       <c r="F62" t="n">
-        <v>101.4</v>
+        <v>99.6427</v>
       </c>
       <c r="G62" t="n">
-        <v>101.2</v>
+        <v>99.589</v>
       </c>
       <c r="H62" t="n">
-        <v>100.299999999999</v>
+        <v>99.86490000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>102.7</v>
+        <v>98.0795</v>
       </c>
       <c r="J62" t="n">
-        <v>100.7</v>
+        <v>99.8412</v>
       </c>
       <c r="K62" t="n">
-        <v>100.9</v>
+        <v>98.9252</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.5</v>
+        <v>99.8916</v>
       </c>
       <c r="C63" t="n">
-        <v>100.6</v>
+        <v>100.2162</v>
       </c>
       <c r="D63" t="n">
-        <v>101.3</v>
+        <v>99.6313</v>
       </c>
       <c r="E63" t="n">
-        <v>101.8</v>
+        <v>99.4572</v>
       </c>
       <c r="F63" t="n">
-        <v>101.6</v>
+        <v>99.367</v>
       </c>
       <c r="G63" t="n">
-        <v>104.4</v>
+        <v>100.3549</v>
       </c>
       <c r="H63" t="n">
-        <v>100.7</v>
+        <v>100.0079</v>
       </c>
       <c r="I63" t="n">
-        <v>103.7</v>
+        <v>97.61369999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>100.5</v>
+        <v>99.9288</v>
       </c>
       <c r="K63" t="n">
-        <v>103.1</v>
+        <v>99.8215</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.8</v>
+        <v>99.98609999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>101.1</v>
+        <v>100.1578</v>
       </c>
       <c r="D64" t="n">
-        <v>102.4</v>
+        <v>100.6916</v>
       </c>
       <c r="E64" t="n">
-        <v>101.9</v>
+        <v>100.3411</v>
       </c>
       <c r="F64" t="n">
-        <v>101.1</v>
+        <v>99.797</v>
       </c>
       <c r="G64" t="n">
-        <v>103.3</v>
+        <v>101.5333</v>
       </c>
       <c r="H64" t="n">
-        <v>101.4</v>
+        <v>99.9508</v>
       </c>
       <c r="I64" t="n">
-        <v>102.3</v>
+        <v>99.9815</v>
       </c>
       <c r="J64" t="n">
-        <v>100.7</v>
+        <v>99.6867</v>
       </c>
       <c r="K64" t="n">
-        <v>104.1</v>
+        <v>101.584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>99.7985</v>
+        <v>100.1552</v>
       </c>
       <c r="C65" t="n">
-        <v>100.2931</v>
+        <v>99.8813</v>
       </c>
       <c r="D65" t="n">
-        <v>99.3275</v>
+        <v>100.7388</v>
       </c>
       <c r="E65" t="n">
-        <v>99.3365</v>
+        <v>100.6316</v>
       </c>
       <c r="F65" t="n">
-        <v>99.6427</v>
+        <v>100.1306</v>
       </c>
       <c r="G65" t="n">
-        <v>99.589</v>
+        <v>100.5122</v>
       </c>
       <c r="H65" t="n">
-        <v>99.86490000000001</v>
+        <v>99.7615</v>
       </c>
       <c r="I65" t="n">
-        <v>98.0795</v>
+        <v>100.9885</v>
       </c>
       <c r="J65" t="n">
-        <v>99.8412</v>
+        <v>99.91459999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>98.9252</v>
+        <v>102.68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.8916</v>
+        <v>100.1</v>
       </c>
       <c r="C66" t="n">
-        <v>100.2162</v>
+        <v>100.4</v>
       </c>
       <c r="D66" t="n">
-        <v>99.6313</v>
+        <v>100.2</v>
       </c>
       <c r="E66" t="n">
-        <v>99.4572</v>
+        <v>100.6</v>
       </c>
       <c r="F66" t="n">
-        <v>99.367</v>
+        <v>100.5</v>
       </c>
       <c r="G66" t="n">
-        <v>100.3549</v>
+        <v>100.5</v>
       </c>
       <c r="H66" t="n">
-        <v>100.0079</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>97.61369999999999</v>
+        <v>101.3</v>
       </c>
       <c r="J66" t="n">
-        <v>99.9288</v>
+        <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>99.8215</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.98609999999999</v>
+        <v>100</v>
       </c>
       <c r="C67" t="n">
-        <v>100.1578</v>
+        <v>100.3</v>
       </c>
       <c r="D67" t="n">
-        <v>100.6916</v>
+        <v>99.7</v>
       </c>
       <c r="E67" t="n">
-        <v>100.3411</v>
+        <v>100.2</v>
       </c>
       <c r="F67" t="n">
-        <v>99.797</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>101.5333</v>
+        <v>100.1</v>
       </c>
       <c r="H67" t="n">
-        <v>99.9508</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>99.9815</v>
+        <v>101.7</v>
       </c>
       <c r="J67" t="n">
-        <v>99.6867</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>101.584</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.1552</v>
+        <v>100.1</v>
       </c>
       <c r="C68" t="n">
-        <v>99.8813</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>100.7388</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>100.6316</v>
+        <v>100.3</v>
       </c>
       <c r="F68" t="n">
-        <v>100.1306</v>
+        <v>99.7</v>
       </c>
       <c r="G68" t="n">
-        <v>100.5122</v>
+        <v>101.7</v>
       </c>
       <c r="H68" t="n">
-        <v>99.7615</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>100.9885</v>
+        <v>100.4</v>
       </c>
       <c r="J68" t="n">
-        <v>99.91459999999999</v>
+        <v>100.7</v>
       </c>
       <c r="K68" t="n">
-        <v>102.68</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>100.1</v>
       </c>
       <c r="C69" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J69" t="n">
         <v>100.4</v>
       </c>
-      <c r="D69" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G69" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>100</v>
-      </c>
-      <c r="I69" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>100</v>
-      </c>
       <c r="K69" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="D70" t="n">
-        <v>99.7</v>
+        <v>100.299999999999</v>
       </c>
       <c r="E70" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G70" t="n">
         <v>100.2</v>
       </c>
-      <c r="F70" t="n">
-        <v>100</v>
-      </c>
-      <c r="G70" t="n">
-        <v>100.1</v>
-      </c>
       <c r="H70" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I70" t="n">
-        <v>101.7</v>
+        <v>101.299999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="K70" t="n">
-        <v>99.09999999999999</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.1</v>
+        <v>100.299999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D71" t="n">
-        <v>99.90000000000001</v>
+        <v>100.799999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="F71" t="n">
-        <v>99.7</v>
+        <v>101.4</v>
       </c>
       <c r="G71" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="H71" t="n">
-        <v>99.90000000000001</v>
+        <v>100.299999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>100.4</v>
+        <v>102.7</v>
       </c>
       <c r="J71" t="n">
         <v>100.7</v>
       </c>
       <c r="K71" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="C72" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="D72" t="n">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="E72" t="n">
-        <v>100.2</v>
+        <v>101.8</v>
       </c>
       <c r="F72" t="n">
-        <v>100.2</v>
+        <v>101.6</v>
       </c>
       <c r="G72" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>100.7</v>
       </c>
-      <c r="H72" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I72" t="n">
-        <v>99.7</v>
+        <v>103.7</v>
       </c>
       <c r="J72" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="K72" t="n">
-        <v>101.2</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="C73" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="D73" t="n">
-        <v>100.299999999999</v>
+        <v>102.4</v>
       </c>
       <c r="E73" t="n">
-        <v>100.4</v>
+        <v>101.9</v>
       </c>
       <c r="F73" t="n">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="G73" t="n">
-        <v>100.2</v>
+        <v>103.3</v>
       </c>
       <c r="H73" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="I73" t="n">
-        <v>101.299999999999</v>
+        <v>102.3</v>
       </c>
       <c r="J73" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="K73" t="n">
-        <v>100.9</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B74" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>102</v>
+      </c>
+      <c r="E74" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G74" t="n">
         <v>100.4</v>
       </c>
-      <c r="C74" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D74" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E74" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>102</v>
-      </c>
       <c r="H74" t="n">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="I74" t="n">
-        <v>101.5</v>
+        <v>102.1</v>
       </c>
       <c r="J74" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="K74" t="n">
-        <v>100.3</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>100.1</v>
       </c>
       <c r="C75" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D75" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="E75" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>101</v>
+      </c>
+      <c r="J75" t="n">
         <v>100.6</v>
       </c>
-      <c r="F75" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="G75" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="H75" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I75" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>100.2</v>
-      </c>
       <c r="K75" t="n">
-        <v>100.6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>100.2</v>
       </c>
       <c r="C76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D76" t="n">
         <v>100.5</v>
       </c>
-      <c r="D76" t="n">
-        <v>100.9</v>
-      </c>
       <c r="E76" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="F76" t="n">
-        <v>102.4</v>
+        <v>100.6</v>
       </c>
       <c r="G76" t="n">
-        <v>99.40000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="H76" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="I76" t="n">
-        <v>101.5</v>
+        <v>100.3</v>
       </c>
       <c r="J76" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="K76" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="D77" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E77" t="n">
-        <v>101.2</v>
+        <v>99.7</v>
       </c>
       <c r="F77" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="G77" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>102.1</v>
+        <v>99.7</v>
       </c>
       <c r="J77" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>102.2</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>101.6</v>
+        <v>99.3</v>
       </c>
       <c r="E78" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F78" t="n">
         <v>100.8</v>
       </c>
-      <c r="F78" t="n">
-        <v>100</v>
-      </c>
       <c r="G78" t="n">
-        <v>101.5</v>
+        <v>99.2</v>
       </c>
       <c r="H78" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="I78" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="J78" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="K78" t="n">
-        <v>102</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C79" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D79" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F79" t="n">
         <v>100.5</v>
       </c>
-      <c r="E79" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>100.6</v>
-      </c>
       <c r="G79" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="H79" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="I79" t="n">
-        <v>100.3</v>
+        <v>98.8</v>
       </c>
       <c r="J79" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>101.9</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C80" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="D80" t="n">
-        <v>99</v>
+        <v>100.1</v>
       </c>
       <c r="E80" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="F80" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="G80" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="H80" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="I80" t="n">
-        <v>99.7</v>
+        <v>98.8</v>
       </c>
       <c r="J80" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="K80" t="n">
-        <v>98.90000000000001</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C81" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D81" t="n">
-        <v>99.3</v>
+        <v>100.6</v>
       </c>
       <c r="E81" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="F81" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="G81" t="n">
-        <v>99.2</v>
+        <v>102.5</v>
       </c>
       <c r="H81" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="I81" t="n">
-        <v>99.8</v>
+        <v>100.7</v>
       </c>
       <c r="J81" t="n">
         <v>100.2</v>
       </c>
       <c r="K81" t="n">
-        <v>98.8</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C82" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="D82" t="n">
-        <v>99.59999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="E82" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="F82" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="G82" t="n">
-        <v>100.3</v>
+        <v>103</v>
       </c>
       <c r="H82" t="n">
-        <v>100.3</v>
+        <v>101.9</v>
       </c>
       <c r="I82" t="n">
-        <v>98.8</v>
+        <v>101.4</v>
       </c>
       <c r="J82" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="K82" t="n">
-        <v>98.90000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="C83" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>102</v>
+      </c>
+      <c r="H83" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K83" t="n">
         <v>100.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>100</v>
-      </c>
-      <c r="F83" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G83" t="n">
-        <v>101</v>
-      </c>
-      <c r="H83" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>100.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C84" t="n">
         <v>100.3</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F84" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="G84" t="n">
         <v>100.2</v>
       </c>
-      <c r="D84" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="H84" t="n">
         <v>100.3</v>
       </c>
-      <c r="G84" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>100.9</v>
-      </c>
       <c r="I84" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="J84" t="n">
         <v>100.2</v>
       </c>
       <c r="K84" t="n">
-        <v>102.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C85" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D85" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="E85" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="F85" t="n">
-        <v>101</v>
+        <v>102.4</v>
       </c>
       <c r="G85" t="n">
-        <v>103</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>101.9</v>
+        <v>99.7</v>
       </c>
       <c r="I85" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="J85" t="n">
         <v>100.2</v>
       </c>
       <c r="K85" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="C86" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D86" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K86" t="n">
         <v>100.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G86" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="H86" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I86" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>100.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="D87" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E87" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F87" t="n">
-        <v>101.5</v>
+        <v>99.8</v>
       </c>
       <c r="G87" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I87" t="n">
-        <v>99.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="J87" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E88" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F88" t="n">
-        <v>101.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="H88" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
       <c r="I88" t="n">
-        <v>97.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="J88" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="K88" t="n">
-        <v>98.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D89" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="E89" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F89" t="n">
         <v>100.5</v>
       </c>
-      <c r="F89" t="n">
-        <v>101.4</v>
-      </c>
       <c r="G89" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>100.5</v>
       </c>
       <c r="I89" t="n">
-        <v>101.3</v>
+        <v>99.5</v>
       </c>
       <c r="J89" t="n">
         <v>100.1</v>
       </c>
       <c r="K89" t="n">
-        <v>100.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C90" t="n">
         <v>99.7</v>
       </c>
       <c r="D90" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E90" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="F90" t="n">
-        <v>99.8</v>
+        <v>101.1</v>
       </c>
       <c r="G90" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="H90" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="I90" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="J90" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="K90" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="D91" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="E91" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="F91" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="G91" t="n">
-        <v>99.2</v>
+        <v>100.5</v>
       </c>
       <c r="H91" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="I91" t="n">
-        <v>99.2</v>
+        <v>101.1</v>
       </c>
       <c r="J91" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="K91" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C92" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="F92" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I92" t="n">
         <v>100.5</v>
       </c>
-      <c r="G92" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="I92" t="n">
-        <v>99.5</v>
-      </c>
       <c r="J92" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="K92" t="n">
-        <v>99</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C93" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="D93" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="E93" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="F93" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="G93" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="H93" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="I93" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="J93" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="K93" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="C94" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="D94" t="n">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="E94" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="F94" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="G94" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="H94" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="J94" t="n">
         <v>100.4</v>
       </c>
       <c r="K94" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="C95" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="E95" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="F95" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="G95" t="n">
-        <v>98.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="H95" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="I95" t="n">
-        <v>100.5</v>
+        <v>101.7</v>
       </c>
       <c r="J95" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="K95" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="C96" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="D96" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="F96" t="n">
-        <v>100.1</v>
+        <v>101.5</v>
       </c>
       <c r="G96" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="H96" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J96" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K96" t="n">
         <v>100.4</v>
-      </c>
-      <c r="I96" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E97" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F97" t="n">
         <v>101.2</v>
       </c>
-      <c r="E97" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>100.6</v>
-      </c>
       <c r="G97" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="H97" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="I97" t="n">
-        <v>100.9</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="K97" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C98" t="n">
-        <v>101.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>100.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>100.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="H98" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="I98" t="n">
-        <v>100.4</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="K98" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="C99" t="n">
-        <v>100.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>101.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G99" t="n">
         <v>99.8</v>
       </c>
       <c r="H99" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="J99" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>99.09999999999999</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C100" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D100" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="E100" t="n">
         <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>101.1</v>
+        <v>99.7</v>
       </c>
       <c r="G100" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="H100" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="I100" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="J100" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K100" t="n">
         <v>100.2</v>
@@ -4151,923 +4151,923 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>99.7</v>
       </c>
       <c r="C101" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D101" t="n">
-        <v>98.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="G101" t="n">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="H101" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="I101" t="n">
-        <v>97.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J101" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>99.40000000000001</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>99.8</v>
       </c>
       <c r="C102" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="D102" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G102" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="E102" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F102" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G102" t="n">
-        <v>99.8</v>
-      </c>
       <c r="H102" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="I102" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="J102" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K102" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C103" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D103" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G103" t="n">
         <v>99.5</v>
       </c>
-      <c r="E103" t="n">
-        <v>100</v>
-      </c>
-      <c r="F103" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G103" t="n">
-        <v>100.5</v>
-      </c>
       <c r="H103" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J103" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="K103" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="D104" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F104" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>99.5</v>
       </c>
       <c r="I104" t="n">
-        <v>100.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="K104" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C105" t="n">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="D105" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100</v>
+      </c>
+      <c r="G105" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H105" t="n">
         <v>99.5</v>
       </c>
-      <c r="E105" t="n">
-        <v>100</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G105" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>99.7</v>
-      </c>
       <c r="I105" t="n">
-        <v>100.5</v>
+        <v>99.3</v>
       </c>
       <c r="J105" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>100.7</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C106" t="n">
-        <v>100.5</v>
+        <v>102.2</v>
       </c>
       <c r="D106" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="F106" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="G106" t="n">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="H106" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I106" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="K106" t="n">
-        <v>100.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C107" t="n">
-        <v>100.5</v>
+        <v>101.8</v>
       </c>
       <c r="D107" t="n">
-        <v>99.3</v>
+        <v>100.1</v>
       </c>
       <c r="E107" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="F107" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="G107" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H107" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="I107" t="n">
-        <v>98.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="J107" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>101.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C108" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F108" t="n">
         <v>101.3</v>
       </c>
-      <c r="D108" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>100</v>
-      </c>
       <c r="G108" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="H108" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="I108" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J108" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K108" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>102.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="E109" t="n">
+        <v>100</v>
+      </c>
+      <c r="F109" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>100</v>
+      </c>
+      <c r="H109" t="n">
         <v>100.2</v>
       </c>
-      <c r="F109" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G109" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H109" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="I109" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="J109" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="K109" t="n">
-        <v>99</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D110" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="E110" t="n">
         <v>100.2</v>
       </c>
       <c r="F110" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="G110" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="H110" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="I110" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="J110" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="D111" t="n">
-        <v>101.7</v>
+        <v>99.5</v>
       </c>
       <c r="E111" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="F111" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="G111" t="n">
-        <v>100.8</v>
+        <v>99.3</v>
       </c>
       <c r="H111" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I111" t="n">
-        <v>101.2</v>
+        <v>99.3</v>
       </c>
       <c r="J111" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B112" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>99</v>
+      </c>
+      <c r="G112" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>100.5</v>
       </c>
-      <c r="C112" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="D112" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="F112" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="G112" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="H112" t="n">
-        <v>100</v>
-      </c>
       <c r="I112" t="n">
-        <v>102.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J112" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="K112" t="n">
-        <v>102.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C113" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>99.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>100.2</v>
+        <v>97.7</v>
       </c>
       <c r="F113" t="n">
-        <v>100.1</v>
+        <v>98.8</v>
       </c>
       <c r="G113" t="n">
-        <v>100.4</v>
+        <v>97.8</v>
       </c>
       <c r="H113" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="I113" t="n">
-        <v>101</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="J113" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="K113" t="n">
-        <v>100.1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C114" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="D114" t="n">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E114" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G114" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I114" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="K114" t="n">
         <v>99.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G114" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H114" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>100</v>
-      </c>
-      <c r="K114" t="n">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C115" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="D115" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>98.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="F115" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>96.90000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="H115" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="I115" t="n">
-        <v>97.40000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="J115" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>99.5</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="C116" t="n">
-        <v>99.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="D116" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>97.7</v>
+        <v>100.9</v>
       </c>
       <c r="F116" t="n">
-        <v>98.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>97.8</v>
+        <v>103</v>
       </c>
       <c r="H116" t="n">
-        <v>98.8</v>
+        <v>100.3</v>
       </c>
       <c r="I116" t="n">
-        <v>92.59999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="J116" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="K116" t="n">
-        <v>99</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="C117" t="n">
-        <v>99.3</v>
+        <v>100.8</v>
       </c>
       <c r="D117" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E117" t="n">
-        <v>98.8</v>
+        <v>100.6</v>
       </c>
       <c r="F117" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="G117" t="n">
-        <v>100.5</v>
+        <v>102.9</v>
       </c>
       <c r="H117" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="I117" t="n">
-        <v>95.8</v>
+        <v>100.4</v>
       </c>
       <c r="J117" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="K117" t="n">
-        <v>99.7</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C118" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="D118" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="E118" t="n">
         <v>100.4</v>
       </c>
       <c r="F118" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="G118" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
       <c r="H118" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="I118" t="n">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="J118" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>100.2</v>
       </c>
       <c r="C119" t="n">
-        <v>101.4</v>
+        <v>99.8</v>
       </c>
       <c r="D119" t="n">
-        <v>99.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="E119" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="F119" t="n">
-        <v>99.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="G119" t="n">
-        <v>103</v>
+        <v>99.8</v>
       </c>
       <c r="H119" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="I119" t="n">
-        <v>102.5</v>
+        <v>99.7</v>
       </c>
       <c r="J119" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="K119" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>100.3</v>
       </c>
       <c r="C120" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G120" t="n">
         <v>100.8</v>
       </c>
-      <c r="D120" t="n">
-        <v>100</v>
-      </c>
-      <c r="E120" t="n">
+      <c r="H120" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="J120" t="n">
         <v>100.6</v>
       </c>
-      <c r="F120" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G120" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="H120" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>99.5</v>
-      </c>
       <c r="K120" t="n">
-        <v>101.6</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="C121" t="n">
-        <v>100</v>
+        <v>101.6</v>
       </c>
       <c r="D121" t="n">
-        <v>100.6</v>
+        <v>102.1</v>
       </c>
       <c r="E121" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100</v>
+      </c>
+      <c r="I121" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="J121" t="n">
         <v>100.4</v>
       </c>
-      <c r="F121" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G121" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H121" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="K121" t="n">
-        <v>101.3</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C122" t="n">
-        <v>99.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="D122" t="n">
-        <v>104.4</v>
+        <v>101.1</v>
       </c>
       <c r="E122" t="n">
-        <v>102.6</v>
+        <v>101.4</v>
       </c>
       <c r="F122" t="n">
-        <v>106.1</v>
+        <v>100.1</v>
       </c>
       <c r="G122" t="n">
-        <v>102.4</v>
+        <v>101.6</v>
       </c>
       <c r="H122" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="I122" t="n">
-        <v>107.7</v>
+        <v>103.3</v>
       </c>
       <c r="J122" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="K122" t="n">
-        <v>99.59999999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C123" t="n">
-        <v>101.8</v>
+        <v>100.2</v>
       </c>
       <c r="D123" t="n">
-        <v>101.9</v>
+        <v>101.3</v>
       </c>
       <c r="E123" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="F123" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="K123" t="n">
         <v>102.2</v>
-      </c>
-      <c r="G123" t="n">
-        <v>100</v>
-      </c>
-      <c r="H123" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="I123" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="K123" t="n">
-        <v>97.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="C124" t="n">
         <v>100.5</v>
       </c>
       <c r="D124" t="n">
-        <v>98.3</v>
+        <v>104.8</v>
       </c>
       <c r="E124" t="n">
-        <v>98.7</v>
+        <v>101.8</v>
       </c>
       <c r="F124" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>98.59999999999999</v>
+        <v>103.8</v>
       </c>
       <c r="H124" t="n">
-        <v>100.1</v>
+        <v>102.1</v>
       </c>
       <c r="I124" t="n">
-        <v>96.2</v>
+        <v>101.4</v>
       </c>
       <c r="J124" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="K124" t="n">
-        <v>97.8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="C125" t="n">
-        <v>102</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>101.1</v>
+        <v>102.6</v>
       </c>
       <c r="E125" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="F125" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="G125" t="n">
-        <v>101.6</v>
+        <v>102.5</v>
       </c>
       <c r="H125" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="I125" t="n">
-        <v>103.3</v>
+        <v>100.6</v>
       </c>
       <c r="J125" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="K125" t="n">
         <v>103</v>
@@ -5076,297 +5076,297 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="C126" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="D126" t="n">
         <v>101.3</v>
       </c>
       <c r="E126" t="n">
-        <v>101.2</v>
+        <v>101.9</v>
       </c>
       <c r="F126" t="n">
-        <v>99.8</v>
+        <v>102.1</v>
       </c>
       <c r="G126" t="n">
-        <v>101.2</v>
+        <v>104.1</v>
       </c>
       <c r="H126" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="I126" t="n">
-        <v>103.3</v>
+        <v>102.8</v>
       </c>
       <c r="J126" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="K126" t="n">
-        <v>102.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>100.5</v>
       </c>
       <c r="C127" t="n">
-        <v>100.5</v>
+        <v>98.7</v>
       </c>
       <c r="D127" t="n">
-        <v>104.8</v>
+        <v>100.1</v>
       </c>
       <c r="E127" t="n">
-        <v>101.8</v>
+        <v>100.8</v>
       </c>
       <c r="F127" t="n">
-        <v>99.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="G127" t="n">
-        <v>103.8</v>
+        <v>100.7</v>
       </c>
       <c r="H127" t="n">
-        <v>102.1</v>
+        <v>100.3</v>
       </c>
       <c r="I127" t="n">
-        <v>101.4</v>
+        <v>102.9</v>
       </c>
       <c r="J127" t="n">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
       <c r="K127" t="n">
-        <v>103</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="C128" t="n">
+        <v>100</v>
+      </c>
+      <c r="D128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F128" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D128" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="E128" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>101</v>
-      </c>
       <c r="G128" t="n">
-        <v>102.5</v>
+        <v>100</v>
       </c>
       <c r="H128" t="n">
-        <v>101.3</v>
+        <v>100.3</v>
       </c>
       <c r="I128" t="n">
-        <v>100.6</v>
+        <v>103.2</v>
       </c>
       <c r="J128" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="K128" t="n">
-        <v>103</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="C129" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D129" t="n">
         <v>101.3</v>
       </c>
       <c r="E129" t="n">
-        <v>101.9</v>
+        <v>100.8</v>
       </c>
       <c r="F129" t="n">
-        <v>102.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>104.1</v>
+        <v>101</v>
       </c>
       <c r="H129" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
       <c r="I129" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="J129" t="n">
         <v>100.6</v>
       </c>
       <c r="K129" t="n">
-        <v>105.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="C130" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="D130" t="n">
-        <v>100.1</v>
+        <v>101</v>
       </c>
       <c r="E130" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="F130" t="n">
-        <v>100.8</v>
+        <v>102.2</v>
       </c>
       <c r="G130" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="J130" t="n">
         <v>100.7</v>
       </c>
-      <c r="H130" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I130" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>100.2</v>
-      </c>
       <c r="K130" t="n">
-        <v>101.7</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>100.9</v>
+        <v>104.4</v>
       </c>
       <c r="E131" t="n">
-        <v>100.9</v>
+        <v>102.6</v>
       </c>
       <c r="F131" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H131" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I131" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="K131" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="G131" t="n">
-        <v>100</v>
-      </c>
-      <c r="H131" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I131" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="K131" t="n">
-        <v>101.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="D132" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="E132" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="F132" t="n">
-        <v>99.59999999999999</v>
+        <v>102.2</v>
       </c>
       <c r="G132" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H132" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="I132" t="n">
-        <v>102.4</v>
+        <v>103.5</v>
       </c>
       <c r="J132" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="K132" t="n">
-        <v>100.2</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="C133" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D133" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="E133" t="n">
-        <v>101.1</v>
+        <v>98.7</v>
       </c>
       <c r="F133" t="n">
-        <v>102.2</v>
+        <v>99.5</v>
       </c>
       <c r="G133" t="n">
-        <v>101.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I133" t="n">
-        <v>103.9</v>
+        <v>96.2</v>
       </c>
       <c r="J133" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="K133" t="n">
-        <v>99.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/工业生产者购进价格指数/工业生产者购进价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/工业生产者购进价格指数/工业生产者购进价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,1598 +488,1598 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.7497</v>
+        <v>99.69540000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>101.0374</v>
+        <v>99.2955</v>
       </c>
       <c r="D2" t="n">
-        <v>100.6205</v>
+        <v>99.4538</v>
       </c>
       <c r="E2" t="n">
-        <v>101.164</v>
+        <v>99.2915</v>
       </c>
       <c r="F2" t="n">
-        <v>100.9715</v>
+        <v>99.8844</v>
       </c>
       <c r="G2" t="n">
-        <v>102.3746</v>
+        <v>95.1386</v>
       </c>
       <c r="H2" t="n">
-        <v>100.4272</v>
+        <v>100.1894</v>
       </c>
       <c r="I2" t="n">
-        <v>101.8091</v>
+        <v>99.7346</v>
       </c>
       <c r="J2" t="n">
-        <v>100.7361</v>
+        <v>99.9776</v>
       </c>
       <c r="K2" t="n">
-        <v>101.4406</v>
+        <v>99.19240000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.502</v>
+        <v>99.61409999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>101.7043</v>
+        <v>98.59820000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>101.3375</v>
+        <v>98.47329999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1505</v>
+        <v>99.25660000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>99.97490000000001</v>
+        <v>100.0255</v>
       </c>
       <c r="G3" t="n">
-        <v>102.1236</v>
+        <v>99.5457</v>
       </c>
       <c r="H3" t="n">
-        <v>100.2844</v>
+        <v>99.6741</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1468</v>
+        <v>99.86839999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>101.508</v>
+        <v>99.52670000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>101.9375</v>
+        <v>98.0491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.6241</v>
+        <v>99.64749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>101.0862</v>
+        <v>99.5012</v>
       </c>
       <c r="D4" t="n">
-        <v>101.144</v>
+        <v>98.7362</v>
       </c>
       <c r="E4" t="n">
-        <v>100.9899</v>
+        <v>99.5634</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2167</v>
+        <v>99.7799</v>
       </c>
       <c r="G4" t="n">
-        <v>100.9322</v>
+        <v>98.6469</v>
       </c>
       <c r="H4" t="n">
-        <v>100.6145</v>
+        <v>99.5819</v>
       </c>
       <c r="I4" t="n">
-        <v>101.6421</v>
+        <v>100.627</v>
       </c>
       <c r="J4" t="n">
-        <v>101.5062</v>
+        <v>99.7861</v>
       </c>
       <c r="K4" t="n">
-        <v>100.6464</v>
+        <v>98.76779999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.4348</v>
+        <v>100.7497</v>
       </c>
       <c r="C5" t="n">
-        <v>100.4661</v>
+        <v>101.0374</v>
       </c>
       <c r="D5" t="n">
-        <v>100.9097</v>
+        <v>100.6205</v>
       </c>
       <c r="E5" t="n">
-        <v>100.9751</v>
+        <v>101.164</v>
       </c>
       <c r="F5" t="n">
-        <v>100.8033</v>
+        <v>100.9715</v>
       </c>
       <c r="G5" t="n">
-        <v>101.0427</v>
+        <v>102.3746</v>
       </c>
       <c r="H5" t="n">
-        <v>100.4292</v>
+        <v>100.4272</v>
       </c>
       <c r="I5" t="n">
-        <v>102.3848</v>
+        <v>101.8091</v>
       </c>
       <c r="J5" t="n">
-        <v>100.737</v>
+        <v>100.7361</v>
       </c>
       <c r="K5" t="n">
-        <v>100.485</v>
+        <v>101.4406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.0953</v>
+        <v>100.502</v>
       </c>
       <c r="C6" t="n">
-        <v>100.2891</v>
+        <v>101.7043</v>
       </c>
       <c r="D6" t="n">
-        <v>100.3979</v>
+        <v>101.3375</v>
       </c>
       <c r="E6" t="n">
-        <v>100.4651</v>
+        <v>101.1505</v>
       </c>
       <c r="F6" t="n">
-        <v>101.1352</v>
+        <v>99.97490000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>99.8259</v>
+        <v>102.1236</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2477</v>
+        <v>100.2844</v>
       </c>
       <c r="I6" t="n">
-        <v>101.3531</v>
+        <v>101.1468</v>
       </c>
       <c r="J6" t="n">
-        <v>99.9233</v>
+        <v>101.508</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3855</v>
+        <v>101.9375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.0129</v>
+        <v>100.6241</v>
       </c>
       <c r="C7" t="n">
-        <v>101.4787</v>
+        <v>101.0862</v>
       </c>
       <c r="D7" t="n">
-        <v>99.872</v>
+        <v>101.144</v>
       </c>
       <c r="E7" t="n">
-        <v>100.1655</v>
+        <v>100.9899</v>
       </c>
       <c r="F7" t="n">
-        <v>100.5048</v>
+        <v>100.2167</v>
       </c>
       <c r="G7" t="n">
-        <v>100.2895</v>
+        <v>100.9322</v>
       </c>
       <c r="H7" t="n">
-        <v>100.0993</v>
+        <v>100.6145</v>
       </c>
       <c r="I7" t="n">
-        <v>99.95910000000001</v>
+        <v>101.6421</v>
       </c>
       <c r="J7" t="n">
-        <v>100.2476</v>
+        <v>101.5062</v>
       </c>
       <c r="K7" t="n">
-        <v>99.98560000000001</v>
+        <v>100.6464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.1125</v>
+        <v>100.4348</v>
       </c>
       <c r="C8" t="n">
-        <v>100.9733</v>
+        <v>100.4661</v>
       </c>
       <c r="D8" t="n">
-        <v>99.9226</v>
+        <v>100.9097</v>
       </c>
       <c r="E8" t="n">
-        <v>100.1079</v>
+        <v>100.9751</v>
       </c>
       <c r="F8" t="n">
-        <v>100.3577</v>
+        <v>100.8033</v>
       </c>
       <c r="G8" t="n">
-        <v>101.285</v>
+        <v>101.0427</v>
       </c>
       <c r="H8" t="n">
-        <v>100.2769</v>
+        <v>100.4292</v>
       </c>
       <c r="I8" t="n">
-        <v>99.5311</v>
+        <v>102.3848</v>
       </c>
       <c r="J8" t="n">
-        <v>99.66119999999999</v>
+        <v>100.737</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0056</v>
+        <v>100.485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.2966</v>
+        <v>100.0953</v>
       </c>
       <c r="C9" t="n">
-        <v>100.089</v>
+        <v>100.2891</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2887</v>
+        <v>100.3979</v>
       </c>
       <c r="E9" t="n">
-        <v>100.1791</v>
+        <v>100.4651</v>
       </c>
       <c r="F9" t="n">
-        <v>100.1179</v>
+        <v>101.1352</v>
       </c>
       <c r="G9" t="n">
-        <v>100.0258</v>
+        <v>99.8259</v>
       </c>
       <c r="H9" t="n">
-        <v>100.485</v>
+        <v>100.2477</v>
       </c>
       <c r="I9" t="n">
-        <v>100.1255</v>
+        <v>101.3531</v>
       </c>
       <c r="J9" t="n">
-        <v>99.2647</v>
+        <v>99.9233</v>
       </c>
       <c r="K9" t="n">
-        <v>100.3976</v>
+        <v>100.3855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0603</v>
+        <v>100.0129</v>
       </c>
       <c r="C10" t="n">
-        <v>100.3428</v>
+        <v>101.4787</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3018</v>
+        <v>99.872</v>
       </c>
       <c r="E10" t="n">
-        <v>100.1144</v>
+        <v>100.1655</v>
       </c>
       <c r="F10" t="n">
-        <v>100.1387</v>
+        <v>100.5048</v>
       </c>
       <c r="G10" t="n">
-        <v>99.6065</v>
+        <v>100.2895</v>
       </c>
       <c r="H10" t="n">
-        <v>100.1267</v>
+        <v>100.0993</v>
       </c>
       <c r="I10" t="n">
-        <v>99.9224</v>
+        <v>99.95910000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>100.8134</v>
+        <v>100.2476</v>
       </c>
       <c r="K10" t="n">
-        <v>100.1865</v>
+        <v>99.98560000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.69540000000001</v>
+        <v>100.1125</v>
       </c>
       <c r="C11" t="n">
-        <v>99.2955</v>
+        <v>100.9733</v>
       </c>
       <c r="D11" t="n">
-        <v>99.4538</v>
+        <v>99.9226</v>
       </c>
       <c r="E11" t="n">
-        <v>99.2915</v>
+        <v>100.1079</v>
       </c>
       <c r="F11" t="n">
-        <v>99.8844</v>
+        <v>100.3577</v>
       </c>
       <c r="G11" t="n">
-        <v>95.1386</v>
+        <v>101.285</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1894</v>
+        <v>100.2769</v>
       </c>
       <c r="I11" t="n">
-        <v>99.7346</v>
+        <v>99.5311</v>
       </c>
       <c r="J11" t="n">
-        <v>99.9776</v>
+        <v>99.66119999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>99.19240000000001</v>
+        <v>100.0056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.61409999999999</v>
+        <v>100.2966</v>
       </c>
       <c r="C12" t="n">
-        <v>98.59820000000001</v>
+        <v>100.089</v>
       </c>
       <c r="D12" t="n">
-        <v>98.47329999999999</v>
+        <v>100.2887</v>
       </c>
       <c r="E12" t="n">
-        <v>99.25660000000001</v>
+        <v>100.1791</v>
       </c>
       <c r="F12" t="n">
-        <v>100.0255</v>
+        <v>100.1179</v>
       </c>
       <c r="G12" t="n">
-        <v>99.5457</v>
+        <v>100.0258</v>
       </c>
       <c r="H12" t="n">
-        <v>99.6741</v>
+        <v>100.485</v>
       </c>
       <c r="I12" t="n">
-        <v>99.86839999999999</v>
+        <v>100.1255</v>
       </c>
       <c r="J12" t="n">
-        <v>99.52670000000001</v>
+        <v>99.2647</v>
       </c>
       <c r="K12" t="n">
-        <v>98.0491</v>
+        <v>100.3976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.64749999999999</v>
+        <v>100.0603</v>
       </c>
       <c r="C13" t="n">
-        <v>99.5012</v>
+        <v>100.3428</v>
       </c>
       <c r="D13" t="n">
-        <v>98.7362</v>
+        <v>100.3018</v>
       </c>
       <c r="E13" t="n">
-        <v>99.5634</v>
+        <v>100.1144</v>
       </c>
       <c r="F13" t="n">
-        <v>99.7799</v>
+        <v>100.1387</v>
       </c>
       <c r="G13" t="n">
-        <v>98.6469</v>
+        <v>99.6065</v>
       </c>
       <c r="H13" t="n">
-        <v>99.5819</v>
+        <v>100.1267</v>
       </c>
       <c r="I13" t="n">
-        <v>100.627</v>
+        <v>99.9224</v>
       </c>
       <c r="J13" t="n">
-        <v>99.7861</v>
+        <v>100.8134</v>
       </c>
       <c r="K13" t="n">
-        <v>98.76779999999999</v>
+        <v>100.1865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.9408</v>
+        <v>100.0859</v>
       </c>
       <c r="C14" t="n">
-        <v>100.0096</v>
+        <v>99.94280000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>99.5498</v>
+        <v>100.3551</v>
       </c>
       <c r="E14" t="n">
-        <v>99.7479</v>
+        <v>100.1385</v>
       </c>
       <c r="F14" t="n">
-        <v>99.5868</v>
+        <v>100.9123</v>
       </c>
       <c r="G14" t="n">
-        <v>99.161</v>
+        <v>100.5268</v>
       </c>
       <c r="H14" t="n">
-        <v>99.78919999999999</v>
+        <v>99.8308</v>
       </c>
       <c r="I14" t="n">
-        <v>100.1997</v>
+        <v>100.0805</v>
       </c>
       <c r="J14" t="n">
-        <v>99.678</v>
+        <v>100.0835</v>
       </c>
       <c r="K14" t="n">
-        <v>98.9117</v>
+        <v>99.8848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.9122</v>
+        <v>99.8398</v>
       </c>
       <c r="C15" t="n">
-        <v>99.905</v>
+        <v>99.76860000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>100.1244</v>
+        <v>99.6765</v>
       </c>
       <c r="E15" t="n">
-        <v>100.1482</v>
+        <v>99.7824</v>
       </c>
       <c r="F15" t="n">
-        <v>99.9739</v>
+        <v>100.2583</v>
       </c>
       <c r="G15" t="n">
-        <v>101.3062</v>
+        <v>98.7291</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0509</v>
+        <v>99.9455</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5416</v>
+        <v>99.7741</v>
       </c>
       <c r="J15" t="n">
-        <v>100.1821</v>
+        <v>99.9868</v>
       </c>
       <c r="K15" t="n">
-        <v>99.6181</v>
+        <v>100.0871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.7597</v>
+        <v>99.92700000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0015</v>
+        <v>100.5055</v>
       </c>
       <c r="D16" t="n">
-        <v>100.0471</v>
+        <v>99.6216</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1137</v>
+        <v>99.92149999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0548</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>100.2413</v>
+        <v>100.1006</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1265</v>
+        <v>99.83369999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>100.8026</v>
+        <v>99.7317</v>
       </c>
       <c r="J16" t="n">
-        <v>100.184</v>
+        <v>100.1004</v>
       </c>
       <c r="K16" t="n">
-        <v>99.7574</v>
+        <v>100.0247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.9444</v>
+        <v>99.9408</v>
       </c>
       <c r="C17" t="n">
-        <v>100.093</v>
+        <v>100.0096</v>
       </c>
       <c r="D17" t="n">
-        <v>99.8331</v>
+        <v>99.5498</v>
       </c>
       <c r="E17" t="n">
-        <v>100.0421</v>
+        <v>99.7479</v>
       </c>
       <c r="F17" t="n">
-        <v>99.6931</v>
+        <v>99.5868</v>
       </c>
       <c r="G17" t="n">
-        <v>99.20440000000001</v>
+        <v>99.161</v>
       </c>
       <c r="H17" t="n">
-        <v>100.1515</v>
+        <v>99.78919999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>100.6919</v>
+        <v>100.1997</v>
       </c>
       <c r="J17" t="n">
-        <v>99.8257</v>
+        <v>99.678</v>
       </c>
       <c r="K17" t="n">
-        <v>99.9353</v>
+        <v>98.9117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.9311</v>
+        <v>99.9122</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0783</v>
+        <v>99.905</v>
       </c>
       <c r="D18" t="n">
-        <v>99.4986</v>
+        <v>100.1244</v>
       </c>
       <c r="E18" t="n">
-        <v>99.7116</v>
+        <v>100.1482</v>
       </c>
       <c r="F18" t="n">
-        <v>99.68559999999999</v>
+        <v>99.9739</v>
       </c>
       <c r="G18" t="n">
-        <v>99.28019999999999</v>
+        <v>101.3062</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1155</v>
+        <v>100.0509</v>
       </c>
       <c r="I18" t="n">
-        <v>99.6139</v>
+        <v>100.5416</v>
       </c>
       <c r="J18" t="n">
-        <v>99.7175</v>
+        <v>100.1821</v>
       </c>
       <c r="K18" t="n">
-        <v>99.4556</v>
+        <v>99.6181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.8056</v>
+        <v>99.7597</v>
       </c>
       <c r="C19" t="n">
-        <v>99.8224</v>
+        <v>100.0015</v>
       </c>
       <c r="D19" t="n">
-        <v>98.7028</v>
+        <v>100.0471</v>
       </c>
       <c r="E19" t="n">
-        <v>99.1819</v>
+        <v>100.1137</v>
       </c>
       <c r="F19" t="n">
-        <v>99.7166</v>
+        <v>100.0548</v>
       </c>
       <c r="G19" t="n">
-        <v>98.87050000000001</v>
+        <v>100.2413</v>
       </c>
       <c r="H19" t="n">
-        <v>99.8242</v>
+        <v>100.1265</v>
       </c>
       <c r="I19" t="n">
-        <v>98.38549999999999</v>
+        <v>100.8026</v>
       </c>
       <c r="J19" t="n">
-        <v>99.5245</v>
+        <v>100.184</v>
       </c>
       <c r="K19" t="n">
-        <v>98.8381</v>
+        <v>99.7574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.7719</v>
+        <v>99.9444</v>
       </c>
       <c r="C20" t="n">
-        <v>99.9846</v>
+        <v>100.093</v>
       </c>
       <c r="D20" t="n">
-        <v>98.8694</v>
+        <v>99.8331</v>
       </c>
       <c r="E20" t="n">
-        <v>99.1538</v>
+        <v>100.0421</v>
       </c>
       <c r="F20" t="n">
-        <v>99.5919</v>
+        <v>99.6931</v>
       </c>
       <c r="G20" t="n">
-        <v>99.62390000000001</v>
+        <v>99.20440000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>99.79170000000001</v>
+        <v>100.1515</v>
       </c>
       <c r="I20" t="n">
-        <v>97.8083</v>
+        <v>100.6919</v>
       </c>
       <c r="J20" t="n">
-        <v>99.72020000000001</v>
+        <v>99.8257</v>
       </c>
       <c r="K20" t="n">
-        <v>98.9502</v>
+        <v>99.9353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.89790000000001</v>
+        <v>99.9311</v>
       </c>
       <c r="C21" t="n">
-        <v>100.5236</v>
+        <v>100.0783</v>
       </c>
       <c r="D21" t="n">
-        <v>99.77079999999999</v>
+        <v>99.4986</v>
       </c>
       <c r="E21" t="n">
-        <v>99.4987</v>
+        <v>99.7116</v>
       </c>
       <c r="F21" t="n">
-        <v>99.4924</v>
+        <v>99.68559999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>99.1631</v>
+        <v>99.28019999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>99.6862</v>
+        <v>100.1155</v>
       </c>
       <c r="I21" t="n">
-        <v>99.1974</v>
+        <v>99.6139</v>
       </c>
       <c r="J21" t="n">
-        <v>99.7017</v>
+        <v>99.7175</v>
       </c>
       <c r="K21" t="n">
-        <v>98.0517</v>
+        <v>99.4556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.0793</v>
+        <v>99.8056</v>
       </c>
       <c r="C22" t="n">
-        <v>100.9256</v>
+        <v>99.8224</v>
       </c>
       <c r="D22" t="n">
-        <v>100.2466</v>
+        <v>98.7028</v>
       </c>
       <c r="E22" t="n">
-        <v>100.1203</v>
+        <v>99.1819</v>
       </c>
       <c r="F22" t="n">
-        <v>99.8622</v>
+        <v>99.7166</v>
       </c>
       <c r="G22" t="n">
-        <v>101.3504</v>
+        <v>98.87050000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0494</v>
+        <v>99.8242</v>
       </c>
       <c r="I22" t="n">
-        <v>100.7421</v>
+        <v>98.38549999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>99.83580000000001</v>
+        <v>99.5245</v>
       </c>
       <c r="K22" t="n">
-        <v>97.821</v>
+        <v>98.8381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.0859</v>
+        <v>99.7719</v>
       </c>
       <c r="C23" t="n">
-        <v>99.94280000000001</v>
+        <v>99.9846</v>
       </c>
       <c r="D23" t="n">
-        <v>100.3551</v>
+        <v>98.8694</v>
       </c>
       <c r="E23" t="n">
-        <v>100.1385</v>
+        <v>99.1538</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9123</v>
+        <v>99.5919</v>
       </c>
       <c r="G23" t="n">
-        <v>100.5268</v>
+        <v>99.62390000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>99.8308</v>
+        <v>99.79170000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>100.0805</v>
+        <v>97.8083</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0835</v>
+        <v>99.72020000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>99.8848</v>
+        <v>98.9502</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.8398</v>
+        <v>99.89790000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>99.76860000000001</v>
+        <v>100.5236</v>
       </c>
       <c r="D24" t="n">
-        <v>99.6765</v>
+        <v>99.77079999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>99.7824</v>
+        <v>99.4987</v>
       </c>
       <c r="F24" t="n">
-        <v>100.2583</v>
+        <v>99.4924</v>
       </c>
       <c r="G24" t="n">
-        <v>98.7291</v>
+        <v>99.1631</v>
       </c>
       <c r="H24" t="n">
-        <v>99.9455</v>
+        <v>99.6862</v>
       </c>
       <c r="I24" t="n">
-        <v>99.7741</v>
+        <v>99.1974</v>
       </c>
       <c r="J24" t="n">
-        <v>99.9868</v>
+        <v>99.7017</v>
       </c>
       <c r="K24" t="n">
-        <v>100.0871</v>
+        <v>98.0517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.92700000000001</v>
+        <v>100.0793</v>
       </c>
       <c r="C25" t="n">
-        <v>100.5055</v>
+        <v>100.9256</v>
       </c>
       <c r="D25" t="n">
-        <v>99.6216</v>
+        <v>100.2466</v>
       </c>
       <c r="E25" t="n">
-        <v>99.92149999999999</v>
+        <v>100.1203</v>
       </c>
       <c r="F25" t="n">
-        <v>99.79000000000001</v>
+        <v>99.8622</v>
       </c>
       <c r="G25" t="n">
-        <v>100.1006</v>
+        <v>101.3504</v>
       </c>
       <c r="H25" t="n">
-        <v>99.83369999999999</v>
+        <v>100.0494</v>
       </c>
       <c r="I25" t="n">
-        <v>99.7317</v>
+        <v>100.7421</v>
       </c>
       <c r="J25" t="n">
-        <v>100.1004</v>
+        <v>99.83580000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>100.0247</v>
+        <v>97.821</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.0898</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>100.936</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>100.1301</v>
+        <v>100.2</v>
       </c>
       <c r="E26" t="n">
-        <v>100.2569</v>
+        <v>100.1</v>
       </c>
       <c r="F26" t="n">
-        <v>99.5393</v>
+        <v>100.4</v>
       </c>
       <c r="G26" t="n">
-        <v>100.1305</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>100.1197</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>100.0933</v>
+        <v>100.2</v>
       </c>
       <c r="J26" t="n">
-        <v>100.2423</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>100.9613</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.979</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>99.9734</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>100.3061</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>100.1914</v>
+        <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>99.6857</v>
+        <v>100.5</v>
       </c>
       <c r="G27" t="n">
-        <v>100.3454</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>100.0431</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2123</v>
+        <v>100</v>
       </c>
       <c r="J27" t="n">
-        <v>100.1777</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>100.846</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.937</v>
+        <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>99.3891</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>99.80970000000001</v>
+        <v>100.1</v>
       </c>
       <c r="E28" t="n">
-        <v>99.94759999999999</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>99.71169999999999</v>
+        <v>100.7</v>
       </c>
       <c r="G28" t="n">
-        <v>98.9071</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>100.3614</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>100.4815</v>
+        <v>100.1</v>
       </c>
       <c r="J28" t="n">
-        <v>100.1482</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>100.095</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.8511</v>
+        <v>100.0898</v>
       </c>
       <c r="C29" t="n">
-        <v>99.1448</v>
+        <v>100.936</v>
       </c>
       <c r="D29" t="n">
-        <v>99.2004</v>
+        <v>100.1301</v>
       </c>
       <c r="E29" t="n">
-        <v>99.3738</v>
+        <v>100.2569</v>
       </c>
       <c r="F29" t="n">
-        <v>99.76519999999999</v>
+        <v>99.5393</v>
       </c>
       <c r="G29" t="n">
-        <v>98.2259</v>
+        <v>100.1305</v>
       </c>
       <c r="H29" t="n">
-        <v>99.80070000000001</v>
+        <v>100.1197</v>
       </c>
       <c r="I29" t="n">
-        <v>98.9605</v>
+        <v>100.0933</v>
       </c>
       <c r="J29" t="n">
-        <v>100.0868</v>
+        <v>100.2423</v>
       </c>
       <c r="K29" t="n">
-        <v>99.4208</v>
+        <v>100.9613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.73399999999999</v>
+        <v>99.979</v>
       </c>
       <c r="C30" t="n">
-        <v>99.6849</v>
+        <v>99.9734</v>
       </c>
       <c r="D30" t="n">
-        <v>99.45050000000001</v>
+        <v>100.3061</v>
       </c>
       <c r="E30" t="n">
-        <v>99.4085</v>
+        <v>100.1914</v>
       </c>
       <c r="F30" t="n">
-        <v>100.0398</v>
+        <v>99.6857</v>
       </c>
       <c r="G30" t="n">
-        <v>98.9127</v>
+        <v>100.3454</v>
       </c>
       <c r="H30" t="n">
-        <v>99.8976</v>
+        <v>100.0431</v>
       </c>
       <c r="I30" t="n">
-        <v>98.85599999999999</v>
+        <v>100.2123</v>
       </c>
       <c r="J30" t="n">
-        <v>99.95359999999999</v>
+        <v>100.1777</v>
       </c>
       <c r="K30" t="n">
-        <v>99.02160000000001</v>
+        <v>100.846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.8386</v>
+        <v>99.937</v>
       </c>
       <c r="C31" t="n">
-        <v>100.7527</v>
+        <v>99.3891</v>
       </c>
       <c r="D31" t="n">
-        <v>99.5305</v>
+        <v>99.80970000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>99.5322</v>
+        <v>99.94759999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>99.8556</v>
+        <v>99.71169999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>99.3994</v>
+        <v>98.9071</v>
       </c>
       <c r="H31" t="n">
-        <v>99.8663</v>
+        <v>100.3614</v>
       </c>
       <c r="I31" t="n">
-        <v>99.0688</v>
+        <v>100.4815</v>
       </c>
       <c r="J31" t="n">
-        <v>99.9551</v>
+        <v>100.1482</v>
       </c>
       <c r="K31" t="n">
-        <v>98.371</v>
+        <v>100.095</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.776</v>
+        <v>99.8511</v>
       </c>
       <c r="C32" t="n">
-        <v>100.268</v>
+        <v>99.1448</v>
       </c>
       <c r="D32" t="n">
-        <v>99.50700000000001</v>
+        <v>99.2004</v>
       </c>
       <c r="E32" t="n">
-        <v>99.58320000000001</v>
+        <v>99.3738</v>
       </c>
       <c r="F32" t="n">
-        <v>99.69329999999999</v>
+        <v>99.76519999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>98.3468</v>
+        <v>98.2259</v>
       </c>
       <c r="H32" t="n">
-        <v>99.98699999999999</v>
+        <v>99.80070000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>99.4033</v>
+        <v>98.9605</v>
       </c>
       <c r="J32" t="n">
-        <v>99.92610000000001</v>
+        <v>100.0868</v>
       </c>
       <c r="K32" t="n">
-        <v>99.3905</v>
+        <v>99.4208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>99.73399999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>100.6</v>
+        <v>99.6849</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>99.45050000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1</v>
+        <v>99.4085</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>100.0398</v>
       </c>
       <c r="G33" t="n">
-        <v>100.5</v>
+        <v>98.9127</v>
       </c>
       <c r="H33" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8976</v>
       </c>
       <c r="I33" t="n">
-        <v>100</v>
+        <v>98.85599999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>99.95359999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>100.4</v>
+        <v>99.02160000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100</v>
+        <v>99.8386</v>
       </c>
       <c r="C34" t="n">
-        <v>100.4</v>
+        <v>100.7527</v>
       </c>
       <c r="D34" t="n">
-        <v>100.2</v>
+        <v>99.5305</v>
       </c>
       <c r="E34" t="n">
-        <v>100.2</v>
+        <v>99.5322</v>
       </c>
       <c r="F34" t="n">
-        <v>100.1</v>
+        <v>99.8556</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>99.3994</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1</v>
+        <v>99.8663</v>
       </c>
       <c r="I34" t="n">
-        <v>100.3</v>
+        <v>99.0688</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1</v>
+        <v>99.9551</v>
       </c>
       <c r="K34" t="n">
-        <v>100.2</v>
+        <v>98.371</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>99.776</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>100.268</v>
       </c>
       <c r="D35" t="n">
-        <v>100.2</v>
+        <v>99.50700000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>100.1</v>
+        <v>99.58320000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4</v>
+        <v>99.69329999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>98.3468</v>
       </c>
       <c r="H35" t="n">
-        <v>99.90000000000001</v>
+        <v>99.98699999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>100.2</v>
+        <v>99.4033</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>99.92610000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>99.7</v>
+        <v>99.3905</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
         <v>100.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I36" t="n">
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="D37" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F37" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I37" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="J37" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="K37" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C38" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D38" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="D38" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>100.1</v>
+        <v>99</v>
       </c>
       <c r="H38" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="J38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="K38" t="n">
-        <v>99.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>99.8</v>
       </c>
       <c r="C39" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E39" t="n">
         <v>99.3</v>
       </c>
-      <c r="D39" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>99.7</v>
-      </c>
       <c r="F39" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="K39" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>99.8</v>
       </c>
       <c r="C40" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>99.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="F40" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>98.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H40" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="J40" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K41" t="n">
         <v>99.7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C42" t="n">
-        <v>100.8</v>
+        <v>99.3</v>
       </c>
       <c r="D42" t="n">
         <v>99.8</v>
       </c>
       <c r="E42" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F42" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J42" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C43" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="E43" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F43" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I43" t="n">
         <v>99.7</v>
       </c>
-      <c r="G43" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>100</v>
-      </c>
-      <c r="I43" t="n">
-        <v>99.8</v>
-      </c>
       <c r="J43" t="n">
         <v>99.8</v>
       </c>
       <c r="K43" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C44" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="D44" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F44" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K44" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="G44" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>100</v>
-      </c>
-      <c r="I44" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2089,22 +2089,22 @@
         <v>100.8</v>
       </c>
       <c r="D45" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="E45" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="H45" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J45" t="n">
         <v>99.90000000000001</v>
@@ -2116,35 +2116,35 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C46" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D46" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="E46" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="G46" t="n">
         <v>100.1</v>
       </c>
       <c r="H46" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I46" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="K46" t="n">
         <v>99</v>
@@ -2153,109 +2153,109 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C47" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="D47" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K47" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100</v>
-      </c>
-      <c r="G47" t="n">
-        <v>99</v>
-      </c>
-      <c r="H47" t="n">
-        <v>100</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C48" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I48" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="D48" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E48" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>100</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="K48" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I48" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C49" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E49" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D49" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E49" t="n">
-        <v>99.2</v>
-      </c>
       <c r="F49" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G49" t="n">
-        <v>99.2</v>
+        <v>100.1</v>
       </c>
       <c r="H49" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K49" t="n">
         <v>99</v>
@@ -2264,257 +2264,257 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F50" t="n">
         <v>99.7</v>
       </c>
-      <c r="C50" t="n">
+      <c r="G50" t="n">
         <v>99.2</v>
       </c>
-      <c r="D50" t="n">
-        <v>98</v>
-      </c>
-      <c r="E50" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="F50" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>98.2</v>
-      </c>
       <c r="H50" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>97.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K50" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.7</v>
+        <v>99.6476</v>
       </c>
       <c r="C51" t="n">
-        <v>99.2</v>
+        <v>99.17570000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>99</v>
+        <v>99.26179999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>99</v>
+        <v>99.2791</v>
       </c>
       <c r="F51" t="n">
-        <v>99.7</v>
+        <v>99.6652</v>
       </c>
       <c r="G51" t="n">
-        <v>98.5</v>
+        <v>97.4924</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>99.803</v>
       </c>
       <c r="I51" t="n">
-        <v>97.5</v>
+        <v>99.5116</v>
       </c>
       <c r="J51" t="n">
-        <v>99.8</v>
+        <v>99.7762</v>
       </c>
       <c r="K51" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5335</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.8</v>
+        <v>99.7038</v>
       </c>
       <c r="C52" t="n">
-        <v>99.5</v>
+        <v>100.0068</v>
       </c>
       <c r="D52" t="n">
-        <v>99.8</v>
+        <v>99.17319999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>99.7</v>
+        <v>99.2504</v>
       </c>
       <c r="F52" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7547</v>
       </c>
       <c r="G52" t="n">
-        <v>99.5</v>
+        <v>98.35380000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7847</v>
       </c>
       <c r="I52" t="n">
-        <v>100.3</v>
+        <v>98.7928</v>
       </c>
       <c r="J52" t="n">
-        <v>99.8</v>
+        <v>99.9649</v>
       </c>
       <c r="K52" t="n">
-        <v>98.7</v>
+        <v>98.1217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C53" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="D53" t="n">
-        <v>100.2</v>
+        <v>98</v>
       </c>
       <c r="E53" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="F53" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>100.4</v>
+        <v>98.2</v>
       </c>
       <c r="H53" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>99.7</v>
+        <v>97.2</v>
       </c>
       <c r="J53" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C54" t="n">
-        <v>100.3</v>
+        <v>99.2</v>
       </c>
       <c r="D54" t="n">
-        <v>100.4</v>
+        <v>99</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="G54" t="n">
-        <v>100.8</v>
+        <v>98.5</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K54" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>99.8</v>
       </c>
       <c r="C55" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="D55" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E55" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="F55" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="H55" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="J55" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="K55" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100</v>
+      </c>
+      <c r="I56" t="n">
         <v>99.7</v>
       </c>
-      <c r="C56" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E56" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G56" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="H56" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I56" t="n">
-        <v>99.2</v>
-      </c>
       <c r="J56" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K56" t="n">
         <v>98.40000000000001</v>
@@ -2523,1626 +2523,1626 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="D57" t="n">
-        <v>99</v>
+        <v>100.4</v>
       </c>
       <c r="E57" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="F57" t="n">
         <v>99.5</v>
       </c>
       <c r="G57" t="n">
-        <v>98</v>
+        <v>100.8</v>
       </c>
       <c r="H57" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="I57" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J57" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C58" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>100</v>
+      </c>
+      <c r="I58" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K58" t="n">
         <v>99.2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E58" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G58" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H58" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>100</v>
-      </c>
-      <c r="K58" t="n">
-        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C59" t="n">
-        <v>98.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="D59" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="G59" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I59" t="n">
         <v>99.2</v>
       </c>
-      <c r="H59" t="n">
-        <v>100</v>
-      </c>
-      <c r="I59" t="n">
-        <v>99.09999999999999</v>
-      </c>
       <c r="J59" t="n">
         <v>99.8</v>
       </c>
       <c r="K59" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.6476</v>
+        <v>99.7</v>
       </c>
       <c r="C60" t="n">
-        <v>99.17570000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D60" t="n">
-        <v>99.26179999999999</v>
+        <v>99</v>
       </c>
       <c r="E60" t="n">
-        <v>99.2791</v>
+        <v>99.3</v>
       </c>
       <c r="F60" t="n">
-        <v>99.6652</v>
+        <v>99.5</v>
       </c>
       <c r="G60" t="n">
-        <v>97.4924</v>
+        <v>98</v>
       </c>
       <c r="H60" t="n">
-        <v>99.803</v>
+        <v>100.1</v>
       </c>
       <c r="I60" t="n">
-        <v>99.5116</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>99.7762</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>98.5335</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.7038</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>100.0068</v>
+        <v>99.2</v>
       </c>
       <c r="D61" t="n">
-        <v>99.17319999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E61" t="n">
-        <v>99.2504</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>99.7547</v>
+        <v>99.5</v>
       </c>
       <c r="G61" t="n">
-        <v>98.35380000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H61" t="n">
-        <v>99.7847</v>
+        <v>100.1</v>
       </c>
       <c r="I61" t="n">
-        <v>98.7928</v>
+        <v>98.5</v>
       </c>
       <c r="J61" t="n">
-        <v>99.9649</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>98.1217</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99.7985</v>
+        <v>100.299999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>100.2931</v>
+        <v>99.5</v>
       </c>
       <c r="D62" t="n">
-        <v>99.3275</v>
+        <v>100.799999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>99.3365</v>
+        <v>100.9</v>
       </c>
       <c r="F62" t="n">
-        <v>99.6427</v>
+        <v>101.4</v>
       </c>
       <c r="G62" t="n">
-        <v>99.589</v>
+        <v>101.2</v>
       </c>
       <c r="H62" t="n">
-        <v>99.86490000000001</v>
+        <v>100.299999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>98.0795</v>
+        <v>102.7</v>
       </c>
       <c r="J62" t="n">
-        <v>99.8412</v>
+        <v>100.7</v>
       </c>
       <c r="K62" t="n">
-        <v>98.9252</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.8916</v>
+        <v>100.5</v>
       </c>
       <c r="C63" t="n">
-        <v>100.2162</v>
+        <v>100.6</v>
       </c>
       <c r="D63" t="n">
-        <v>99.6313</v>
+        <v>101.3</v>
       </c>
       <c r="E63" t="n">
-        <v>99.4572</v>
+        <v>101.8</v>
       </c>
       <c r="F63" t="n">
-        <v>99.367</v>
+        <v>101.6</v>
       </c>
       <c r="G63" t="n">
-        <v>100.3549</v>
+        <v>104.4</v>
       </c>
       <c r="H63" t="n">
-        <v>100.0079</v>
+        <v>100.7</v>
       </c>
       <c r="I63" t="n">
-        <v>97.61369999999999</v>
+        <v>103.7</v>
       </c>
       <c r="J63" t="n">
-        <v>99.9288</v>
+        <v>100.5</v>
       </c>
       <c r="K63" t="n">
-        <v>99.8215</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99.98609999999999</v>
+        <v>100.8</v>
       </c>
       <c r="C64" t="n">
-        <v>100.1578</v>
+        <v>101.1</v>
       </c>
       <c r="D64" t="n">
-        <v>100.6916</v>
+        <v>102.4</v>
       </c>
       <c r="E64" t="n">
-        <v>100.3411</v>
+        <v>101.9</v>
       </c>
       <c r="F64" t="n">
-        <v>99.797</v>
+        <v>101.1</v>
       </c>
       <c r="G64" t="n">
-        <v>101.5333</v>
+        <v>103.3</v>
       </c>
       <c r="H64" t="n">
-        <v>99.9508</v>
+        <v>101.4</v>
       </c>
       <c r="I64" t="n">
-        <v>99.9815</v>
+        <v>102.3</v>
       </c>
       <c r="J64" t="n">
-        <v>99.6867</v>
+        <v>100.7</v>
       </c>
       <c r="K64" t="n">
-        <v>101.584</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.1552</v>
+        <v>99.7985</v>
       </c>
       <c r="C65" t="n">
-        <v>99.8813</v>
+        <v>100.2931</v>
       </c>
       <c r="D65" t="n">
-        <v>100.7388</v>
+        <v>99.3275</v>
       </c>
       <c r="E65" t="n">
-        <v>100.6316</v>
+        <v>99.3365</v>
       </c>
       <c r="F65" t="n">
-        <v>100.1306</v>
+        <v>99.6427</v>
       </c>
       <c r="G65" t="n">
-        <v>100.5122</v>
+        <v>99.589</v>
       </c>
       <c r="H65" t="n">
-        <v>99.7615</v>
+        <v>99.86490000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>100.9885</v>
+        <v>98.0795</v>
       </c>
       <c r="J65" t="n">
-        <v>99.91459999999999</v>
+        <v>99.8412</v>
       </c>
       <c r="K65" t="n">
-        <v>102.68</v>
+        <v>98.9252</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.1</v>
+        <v>99.8916</v>
       </c>
       <c r="C66" t="n">
-        <v>100.4</v>
+        <v>100.2162</v>
       </c>
       <c r="D66" t="n">
-        <v>100.2</v>
+        <v>99.6313</v>
       </c>
       <c r="E66" t="n">
-        <v>100.6</v>
+        <v>99.4572</v>
       </c>
       <c r="F66" t="n">
-        <v>100.5</v>
+        <v>99.367</v>
       </c>
       <c r="G66" t="n">
-        <v>100.5</v>
+        <v>100.3549</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>100.0079</v>
       </c>
       <c r="I66" t="n">
-        <v>101.3</v>
+        <v>97.61369999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
+        <v>99.9288</v>
       </c>
       <c r="K66" t="n">
-        <v>101.7</v>
+        <v>99.8215</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100</v>
+        <v>99.98609999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>100.3</v>
+        <v>100.1578</v>
       </c>
       <c r="D67" t="n">
-        <v>99.7</v>
+        <v>100.6916</v>
       </c>
       <c r="E67" t="n">
-        <v>100.2</v>
+        <v>100.3411</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>99.797</v>
       </c>
       <c r="G67" t="n">
-        <v>100.1</v>
+        <v>101.5333</v>
       </c>
       <c r="H67" t="n">
-        <v>99.90000000000001</v>
+        <v>99.9508</v>
       </c>
       <c r="I67" t="n">
-        <v>101.7</v>
+        <v>99.9815</v>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>99.6867</v>
       </c>
       <c r="K67" t="n">
-        <v>99.09999999999999</v>
+        <v>101.584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.1</v>
+        <v>100.1552</v>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>99.8813</v>
       </c>
       <c r="D68" t="n">
-        <v>99.90000000000001</v>
+        <v>100.7388</v>
       </c>
       <c r="E68" t="n">
-        <v>100.3</v>
+        <v>100.6316</v>
       </c>
       <c r="F68" t="n">
-        <v>99.7</v>
+        <v>100.1306</v>
       </c>
       <c r="G68" t="n">
-        <v>101.7</v>
+        <v>100.5122</v>
       </c>
       <c r="H68" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7615</v>
       </c>
       <c r="I68" t="n">
-        <v>100.4</v>
+        <v>100.9885</v>
       </c>
       <c r="J68" t="n">
-        <v>100.7</v>
+        <v>99.91459999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>100.3</v>
+        <v>102.68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>100.1</v>
       </c>
       <c r="C69" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D69" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E69" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="F69" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="G69" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="H69" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I69" t="n">
-        <v>99.7</v>
+        <v>101.3</v>
       </c>
       <c r="J69" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D70" t="n">
-        <v>100.299999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E70" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="F70" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H70" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>101.299999999999</v>
+        <v>101.7</v>
       </c>
       <c r="J70" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="K70" t="n">
-        <v>100.9</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.299999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C71" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>100.799999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="F71" t="n">
-        <v>101.4</v>
+        <v>99.7</v>
       </c>
       <c r="G71" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="H71" t="n">
-        <v>100.299999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>102.7</v>
+        <v>100.4</v>
       </c>
       <c r="J71" t="n">
         <v>100.7</v>
       </c>
       <c r="K71" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="C72" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="D72" t="n">
-        <v>101.3</v>
+        <v>100.1</v>
       </c>
       <c r="E72" t="n">
-        <v>101.8</v>
+        <v>100.2</v>
       </c>
       <c r="F72" t="n">
-        <v>101.6</v>
+        <v>100.2</v>
       </c>
       <c r="G72" t="n">
-        <v>104.4</v>
+        <v>100.7</v>
       </c>
       <c r="H72" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="I72" t="n">
-        <v>103.7</v>
+        <v>99.7</v>
       </c>
       <c r="J72" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="K72" t="n">
-        <v>103.1</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="D73" t="n">
-        <v>102.4</v>
+        <v>100.299999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>101.9</v>
+        <v>100.4</v>
       </c>
       <c r="F73" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="G73" t="n">
-        <v>103.3</v>
+        <v>100.2</v>
       </c>
       <c r="H73" t="n">
-        <v>101.4</v>
+        <v>100</v>
       </c>
       <c r="I73" t="n">
-        <v>102.3</v>
+        <v>101.299999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="K73" t="n">
-        <v>104.1</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="C74" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D74" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G74" t="n">
         <v>102</v>
       </c>
-      <c r="E74" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="J74" t="n">
         <v>100.4</v>
       </c>
-      <c r="H74" t="n">
-        <v>101</v>
-      </c>
-      <c r="I74" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>100.6</v>
-      </c>
       <c r="K74" t="n">
-        <v>102.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>100.1</v>
       </c>
       <c r="C75" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="D75" t="n">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="E75" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>101.8</v>
       </c>
       <c r="G75" t="n">
-        <v>101.5</v>
+        <v>100.2</v>
       </c>
       <c r="H75" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="I75" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="J75" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K75" t="n">
         <v>100.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>100.2</v>
       </c>
       <c r="C76" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D76" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="E76" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="F76" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
       <c r="G76" t="n">
-        <v>100.6</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="I76" t="n">
-        <v>100.3</v>
+        <v>101.5</v>
       </c>
       <c r="J76" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="K76" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="C77" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D77" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E77" t="n">
-        <v>99.7</v>
+        <v>101.2</v>
       </c>
       <c r="F77" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="G77" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="H77" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="I77" t="n">
-        <v>99.7</v>
+        <v>102.1</v>
       </c>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="K77" t="n">
-        <v>98.90000000000001</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C78" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D78" t="n">
-        <v>99.3</v>
+        <v>101.6</v>
       </c>
       <c r="E78" t="n">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="F78" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>99.2</v>
+        <v>101.5</v>
       </c>
       <c r="H78" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="I78" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="J78" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="K78" t="n">
-        <v>98.8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C79" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="E79" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F79" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G79" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>100.5</v>
       </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
         <v>100.3</v>
       </c>
-      <c r="H79" t="n">
+      <c r="J79" t="n">
         <v>100.3</v>
       </c>
-      <c r="I79" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>100</v>
-      </c>
       <c r="K79" t="n">
-        <v>98.90000000000001</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D80" t="n">
-        <v>100.1</v>
+        <v>99</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="F80" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="G80" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>98.8</v>
+        <v>99.7</v>
       </c>
       <c r="J80" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="K80" t="n">
-        <v>100.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C81" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H81" t="n">
         <v>100.2</v>
       </c>
-      <c r="D81" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="E81" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G81" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="H81" t="n">
-        <v>100.9</v>
-      </c>
       <c r="I81" t="n">
-        <v>100.7</v>
+        <v>99.8</v>
       </c>
       <c r="J81" t="n">
         <v>100.2</v>
       </c>
       <c r="K81" t="n">
-        <v>102.4</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="C82" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>101.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>101.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="G82" t="n">
-        <v>103</v>
+        <v>100.3</v>
       </c>
       <c r="H82" t="n">
-        <v>101.9</v>
+        <v>100.3</v>
       </c>
       <c r="I82" t="n">
-        <v>101.4</v>
+        <v>98.8</v>
       </c>
       <c r="J82" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="K82" t="n">
-        <v>102</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B83" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
         <v>100.4</v>
       </c>
-      <c r="C83" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D83" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>101.3</v>
-      </c>
       <c r="G83" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H83" t="n">
-        <v>101.5</v>
+        <v>100.4</v>
       </c>
       <c r="I83" t="n">
-        <v>101.5</v>
+        <v>98.8</v>
       </c>
       <c r="J83" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="K83" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C84" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F84" t="n">
         <v>100.3</v>
       </c>
-      <c r="D84" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F84" t="n">
-        <v>101.8</v>
-      </c>
       <c r="G84" t="n">
-        <v>100.2</v>
+        <v>102.5</v>
       </c>
       <c r="H84" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="I84" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="J84" t="n">
         <v>100.2</v>
       </c>
       <c r="K84" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B85" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C85" t="n">
         <v>100.2</v>
       </c>
-      <c r="C85" t="n">
-        <v>100.5</v>
-      </c>
       <c r="D85" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="E85" t="n">
-        <v>100.8</v>
+        <v>101.2</v>
       </c>
       <c r="F85" t="n">
-        <v>102.4</v>
+        <v>101</v>
       </c>
       <c r="G85" t="n">
-        <v>99.40000000000001</v>
+        <v>103</v>
       </c>
       <c r="H85" t="n">
-        <v>99.7</v>
+        <v>101.9</v>
       </c>
       <c r="I85" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="J85" t="n">
         <v>100.2</v>
       </c>
       <c r="K85" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="C86" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D86" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="E86" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="F86" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="G86" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="H86" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="I86" t="n">
-        <v>101.3</v>
+        <v>101.7</v>
       </c>
       <c r="J86" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="K86" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C87" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="F87" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G87" t="n">
         <v>99.7</v>
       </c>
-      <c r="D87" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I87" t="n">
-        <v>100.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K87" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C88" t="n">
+        <v>100</v>
+      </c>
+      <c r="D88" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E88" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="D88" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>99.7</v>
-      </c>
       <c r="F88" t="n">
-        <v>99.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="G88" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="H88" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="I88" t="n">
-        <v>99.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="K88" t="n">
-        <v>100.2</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C89" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="E89" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="F89" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G89" t="n">
         <v>100.5</v>
-      </c>
-      <c r="G89" t="n">
-        <v>99.59999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>100.5</v>
       </c>
       <c r="I89" t="n">
-        <v>99.5</v>
+        <v>101.3</v>
       </c>
       <c r="J89" t="n">
         <v>100.1</v>
       </c>
       <c r="K89" t="n">
-        <v>99</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>99.7</v>
       </c>
       <c r="D90" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E90" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="F90" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="G90" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H90" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I90" t="n">
         <v>100.9</v>
       </c>
-      <c r="I90" t="n">
-        <v>100.7</v>
-      </c>
       <c r="J90" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="K90" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>100</v>
       </c>
       <c r="C91" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E91" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="F91" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G91" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>100.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>100</v>
-      </c>
       <c r="I91" t="n">
-        <v>101.1</v>
+        <v>99.2</v>
       </c>
       <c r="J91" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="K91" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E92" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="F92" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="G92" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="I92" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="J92" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="K92" t="n">
-        <v>100.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>100.8</v>
+        <v>99.7</v>
       </c>
       <c r="D93" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="E93" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="F93" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="G93" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="H93" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="I93" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="J93" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="K93" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="C94" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E94" t="n">
         <v>100.4</v>
       </c>
-      <c r="D94" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>100.6</v>
-      </c>
       <c r="F94" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="G94" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="H94" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="I94" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="J94" t="n">
         <v>100.4</v>
       </c>
       <c r="K94" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>100</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G95" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K95" t="n">
         <v>100.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G95" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="H95" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I95" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>100.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="C96" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="D96" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="F96" t="n">
-        <v>101.5</v>
+        <v>100.1</v>
       </c>
       <c r="G96" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H96" t="n">
-        <v>99.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="I96" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="J96" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="K96" t="n">
-        <v>100.4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C97" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="D97" t="n">
-        <v>98.09999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="E97" t="n">
-        <v>99.09999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="F97" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="G97" t="n">
-        <v>99.5</v>
+        <v>100.1</v>
       </c>
       <c r="H97" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>97.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="J97" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="K97" t="n">
-        <v>98.7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="C98" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H98" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J98" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D98" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F98" t="n">
-        <v>100</v>
-      </c>
-      <c r="G98" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="H98" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="J98" t="n">
-        <v>99.7</v>
-      </c>
       <c r="K98" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="C99" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F99" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G99" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I99" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D99" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E99" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F99" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G99" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H99" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100.1</v>
-      </c>
       <c r="J99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K99" t="n">
-        <v>100.8</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C100" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100</v>
+      </c>
+      <c r="F100" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>100</v>
+      </c>
+      <c r="H100" t="n">
         <v>100.2</v>
       </c>
-      <c r="D100" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="E100" t="n">
-        <v>100</v>
-      </c>
-      <c r="F100" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G100" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H100" t="n">
-        <v>99.8</v>
-      </c>
       <c r="I100" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="J100" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K100" t="n">
         <v>100.2</v>
@@ -4151,923 +4151,923 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>99.7</v>
       </c>
       <c r="C101" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D101" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100</v>
+      </c>
+      <c r="G101" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="J101" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="K101" t="n">
         <v>99.40000000000001</v>
-      </c>
-      <c r="E101" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F101" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G101" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="H101" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="I101" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>100.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>99.8</v>
       </c>
       <c r="C102" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>100.4</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H102" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="J102" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K102" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C103" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>100</v>
+      </c>
+      <c r="F103" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G103" t="n">
         <v>100.5</v>
       </c>
-      <c r="D103" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F103" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>99.5</v>
-      </c>
       <c r="H103" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I103" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="J103" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="K103" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C104" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="D104" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="G104" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="H104" t="n">
         <v>99.5</v>
       </c>
       <c r="I104" t="n">
-        <v>98.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="J104" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C105" t="n">
-        <v>101.3</v>
+        <v>100.1</v>
       </c>
       <c r="D105" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G105" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="E105" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F105" t="n">
-        <v>100</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>99.7</v>
       </c>
-      <c r="H105" t="n">
-        <v>99.5</v>
-      </c>
       <c r="I105" t="n">
-        <v>99.3</v>
+        <v>100.5</v>
       </c>
       <c r="J105" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K105" t="n">
-        <v>99.2</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B106" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F106" t="n">
         <v>100.3</v>
       </c>
-      <c r="C106" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>100</v>
-      </c>
-      <c r="E106" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>100.4</v>
-      </c>
       <c r="G106" t="n">
-        <v>100.9</v>
+        <v>99.5</v>
       </c>
       <c r="H106" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I106" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="I106" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="J106" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="K106" t="n">
-        <v>99</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>101.8</v>
+        <v>100.5</v>
       </c>
       <c r="D107" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="E107" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="F107" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="I107" t="n">
-        <v>100.4</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J107" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="K107" t="n">
-        <v>99.8</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C108" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="D108" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K108" t="n">
         <v>99.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F108" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H108" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="J108" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K108" t="n">
-        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="C109" t="n">
-        <v>99.40000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="D109" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F109" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="G109" t="n">
-        <v>100</v>
+        <v>100.9</v>
       </c>
       <c r="H109" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J109" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="K109" t="n">
-        <v>100.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C110" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D110" t="n">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
       <c r="E110" t="n">
         <v>100.2</v>
       </c>
       <c r="F110" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="G110" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J110" t="n">
         <v>100.4</v>
       </c>
-      <c r="H110" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I110" t="n">
-        <v>101</v>
-      </c>
-      <c r="J110" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="K110" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C111" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="D111" t="n">
-        <v>99.5</v>
+        <v>101.7</v>
       </c>
       <c r="E111" t="n">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="F111" t="n">
-        <v>99.8</v>
+        <v>101.1</v>
       </c>
       <c r="G111" t="n">
-        <v>99.3</v>
+        <v>100.8</v>
       </c>
       <c r="H111" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="I111" t="n">
-        <v>99.3</v>
+        <v>101.2</v>
       </c>
       <c r="J111" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="K111" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="C112" t="n">
-        <v>99.90000000000001</v>
+        <v>101.6</v>
       </c>
       <c r="D112" t="n">
-        <v>98.2</v>
+        <v>102.1</v>
       </c>
       <c r="E112" t="n">
-        <v>98.90000000000001</v>
+        <v>101.5</v>
       </c>
       <c r="F112" t="n">
-        <v>99</v>
+        <v>100.8</v>
       </c>
       <c r="G112" t="n">
-        <v>96.90000000000001</v>
+        <v>103.3</v>
       </c>
       <c r="H112" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="I112" t="n">
-        <v>97.40000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="J112" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="K112" t="n">
-        <v>99.5</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C113" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D113" t="n">
-        <v>97.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E113" t="n">
-        <v>97.7</v>
+        <v>100.2</v>
       </c>
       <c r="F113" t="n">
-        <v>98.8</v>
+        <v>100.1</v>
       </c>
       <c r="G113" t="n">
-        <v>97.8</v>
+        <v>100.4</v>
       </c>
       <c r="H113" t="n">
-        <v>98.8</v>
+        <v>99.8</v>
       </c>
       <c r="I113" t="n">
-        <v>92.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="J113" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>99</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C114" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G114" t="n">
         <v>99.3</v>
       </c>
-      <c r="D114" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F114" t="n">
+      <c r="H114" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I114" t="n">
         <v>99.3</v>
       </c>
-      <c r="G114" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H114" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="I114" t="n">
-        <v>95.8</v>
-      </c>
       <c r="J114" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="K114" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C115" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="E115" t="n">
-        <v>100.4</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="G115" t="n">
-        <v>101.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="I115" t="n">
-        <v>101.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J115" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K115" t="n">
-        <v>101.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="C116" t="n">
-        <v>101.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>100.9</v>
+        <v>97.7</v>
       </c>
       <c r="F116" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="G116" t="n">
-        <v>103</v>
+        <v>97.8</v>
       </c>
       <c r="H116" t="n">
-        <v>100.3</v>
+        <v>98.8</v>
       </c>
       <c r="I116" t="n">
-        <v>102.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="K116" t="n">
-        <v>100.9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="C117" t="n">
-        <v>100.8</v>
+        <v>99.3</v>
       </c>
       <c r="D117" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="E117" t="n">
-        <v>100.6</v>
+        <v>98.8</v>
       </c>
       <c r="F117" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="G117" t="n">
-        <v>102.9</v>
+        <v>100.5</v>
       </c>
       <c r="H117" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I117" t="n">
-        <v>100.4</v>
+        <v>95.8</v>
       </c>
       <c r="J117" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="K117" t="n">
-        <v>101.6</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C118" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="D118" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E118" t="n">
         <v>100.4</v>
       </c>
       <c r="F118" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>100.9</v>
+        <v>101.8</v>
       </c>
       <c r="H118" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="I118" t="n">
-        <v>100.5</v>
+        <v>101.2</v>
       </c>
       <c r="J118" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>100.2</v>
       </c>
       <c r="C119" t="n">
-        <v>99.8</v>
+        <v>101.4</v>
       </c>
       <c r="D119" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E119" t="n">
         <v>100.9</v>
       </c>
-      <c r="E119" t="n">
-        <v>100.2</v>
-      </c>
       <c r="F119" t="n">
-        <v>100.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>99.8</v>
+        <v>103</v>
       </c>
       <c r="H119" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I119" t="n">
-        <v>99.7</v>
+        <v>102.5</v>
       </c>
       <c r="J119" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="K119" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>100.3</v>
       </c>
       <c r="C120" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D120" t="n">
-        <v>101.7</v>
+        <v>100</v>
       </c>
       <c r="E120" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="F120" t="n">
-        <v>101.1</v>
+        <v>99.8</v>
       </c>
       <c r="G120" t="n">
-        <v>100.8</v>
+        <v>102.9</v>
       </c>
       <c r="H120" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I120" t="n">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="J120" t="n">
-        <v>100.6</v>
+        <v>99.5</v>
       </c>
       <c r="K120" t="n">
-        <v>100.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B121" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>100</v>
+      </c>
+      <c r="D121" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F121" t="n">
         <v>100.5</v>
       </c>
-      <c r="C121" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="F121" t="n">
-        <v>100.8</v>
-      </c>
       <c r="G121" t="n">
-        <v>103.3</v>
+        <v>100.9</v>
       </c>
       <c r="H121" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="I121" t="n">
-        <v>102.2</v>
+        <v>100.5</v>
       </c>
       <c r="J121" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>102.6</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C122" t="n">
-        <v>102</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>101.1</v>
+        <v>104.4</v>
       </c>
       <c r="E122" t="n">
-        <v>101.4</v>
+        <v>102.6</v>
       </c>
       <c r="F122" t="n">
-        <v>100.1</v>
+        <v>106.1</v>
       </c>
       <c r="G122" t="n">
-        <v>101.6</v>
+        <v>102.4</v>
       </c>
       <c r="H122" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="I122" t="n">
-        <v>103.3</v>
+        <v>107.7</v>
       </c>
       <c r="J122" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
       <c r="K122" t="n">
-        <v>103</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>100.2</v>
+        <v>101.8</v>
       </c>
       <c r="D123" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="E123" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="F123" t="n">
-        <v>99.8</v>
+        <v>102.2</v>
       </c>
       <c r="G123" t="n">
-        <v>101.2</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="I123" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="J123" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="K123" t="n">
-        <v>102.2</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="C124" t="n">
         <v>100.5</v>
       </c>
       <c r="D124" t="n">
-        <v>104.8</v>
+        <v>98.3</v>
       </c>
       <c r="E124" t="n">
-        <v>101.8</v>
+        <v>98.7</v>
       </c>
       <c r="F124" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G124" t="n">
-        <v>103.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H124" t="n">
-        <v>102.1</v>
+        <v>100.1</v>
       </c>
       <c r="I124" t="n">
-        <v>101.4</v>
+        <v>96.2</v>
       </c>
       <c r="J124" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="K124" t="n">
-        <v>103</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="C125" t="n">
-        <v>99.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
-        <v>102.6</v>
+        <v>101.1</v>
       </c>
       <c r="E125" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="F125" t="n">
-        <v>101</v>
+        <v>100.1</v>
       </c>
       <c r="G125" t="n">
-        <v>102.5</v>
+        <v>101.6</v>
       </c>
       <c r="H125" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="I125" t="n">
-        <v>100.6</v>
+        <v>103.3</v>
       </c>
       <c r="J125" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="K125" t="n">
         <v>103</v>
@@ -5076,297 +5076,1000 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="C126" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="D126" t="n">
         <v>101.3</v>
       </c>
       <c r="E126" t="n">
-        <v>101.9</v>
+        <v>101.2</v>
       </c>
       <c r="F126" t="n">
-        <v>102.1</v>
+        <v>99.8</v>
       </c>
       <c r="G126" t="n">
-        <v>104.1</v>
+        <v>101.2</v>
       </c>
       <c r="H126" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="I126" t="n">
-        <v>102.8</v>
+        <v>103.3</v>
       </c>
       <c r="J126" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="K126" t="n">
-        <v>105.1</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>100.5</v>
       </c>
       <c r="C127" t="n">
-        <v>98.7</v>
+        <v>100.5</v>
       </c>
       <c r="D127" t="n">
-        <v>100.1</v>
+        <v>104.8</v>
       </c>
       <c r="E127" t="n">
-        <v>100.8</v>
+        <v>101.8</v>
       </c>
       <c r="F127" t="n">
-        <v>100.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>100.7</v>
+        <v>103.8</v>
       </c>
       <c r="H127" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="I127" t="n">
-        <v>102.9</v>
+        <v>101.4</v>
       </c>
       <c r="J127" t="n">
-        <v>100.2</v>
+        <v>101.3</v>
       </c>
       <c r="K127" t="n">
-        <v>101.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="C128" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>100.9</v>
+        <v>102.6</v>
       </c>
       <c r="E128" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="F128" t="n">
-        <v>99.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="G128" t="n">
-        <v>100</v>
+        <v>102.5</v>
       </c>
       <c r="H128" t="n">
-        <v>100.3</v>
+        <v>101.3</v>
       </c>
       <c r="I128" t="n">
-        <v>103.2</v>
+        <v>100.6</v>
       </c>
       <c r="J128" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="K128" t="n">
-        <v>101.1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="C129" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D129" t="n">
         <v>101.3</v>
       </c>
       <c r="E129" t="n">
-        <v>100.8</v>
+        <v>101.9</v>
       </c>
       <c r="F129" t="n">
-        <v>99.59999999999999</v>
+        <v>102.1</v>
       </c>
       <c r="G129" t="n">
-        <v>101</v>
+        <v>104.1</v>
       </c>
       <c r="H129" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="I129" t="n">
-        <v>102.4</v>
+        <v>102.8</v>
       </c>
       <c r="J129" t="n">
         <v>100.6</v>
       </c>
       <c r="K129" t="n">
-        <v>100.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H130" t="n">
         <v>100.3</v>
       </c>
-      <c r="C130" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>101</v>
-      </c>
-      <c r="E130" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="I130" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K130" t="n">
         <v>101.7</v>
-      </c>
-      <c r="H130" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I130" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="C131" t="n">
+        <v>100</v>
+      </c>
+      <c r="D131" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F131" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D131" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>106.1</v>
-      </c>
       <c r="G131" t="n">
-        <v>102.4</v>
+        <v>100</v>
       </c>
       <c r="H131" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="I131" t="n">
-        <v>107.7</v>
+        <v>103.2</v>
       </c>
       <c r="J131" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="K131" t="n">
-        <v>99.59999999999999</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C132" t="n">
-        <v>101.8</v>
+        <v>100</v>
       </c>
       <c r="D132" t="n">
-        <v>101.9</v>
+        <v>101.3</v>
       </c>
       <c r="E132" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G132" t="n">
         <v>101</v>
       </c>
-      <c r="F132" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="G132" t="n">
-        <v>100</v>
-      </c>
       <c r="H132" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="I132" t="n">
-        <v>103.5</v>
+        <v>102.4</v>
       </c>
       <c r="J132" t="n">
-        <v>101.5</v>
+        <v>100.6</v>
       </c>
       <c r="K132" t="n">
-        <v>97.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>101</v>
+      </c>
+      <c r="E133" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I133" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="J133" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K134" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>100</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H135" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I135" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J135" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I136" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K136" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H137" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I137" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="J137" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K137" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I138" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="J138" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K138" t="n">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G139" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I139" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="I140" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G142" t="n">
+        <v>99</v>
+      </c>
+      <c r="H142" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="I142" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>102</v>
+      </c>
+      <c r="D143" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H143" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I143" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J143" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
         <v>99.7</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C144" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>99</v>
+      </c>
+      <c r="G144" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K144" t="n">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>101</v>
+      </c>
+      <c r="D145" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="H145" t="n">
         <v>100.5</v>
       </c>
-      <c r="D133" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E133" t="n">
+      <c r="I145" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J145" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I146" t="n">
         <v>98.7</v>
       </c>
-      <c r="F133" t="n">
+      <c r="J146" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="K146" t="n">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>99</v>
+      </c>
+      <c r="D147" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>99</v>
+      </c>
+      <c r="G147" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H147" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I147" t="n">
         <v>99.5</v>
       </c>
-      <c r="G133" t="n">
+      <c r="J147" t="n">
+        <v>100</v>
+      </c>
+      <c r="K147" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>100</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H148" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="I148" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J148" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K148" t="n">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H149" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J133" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="K133" t="n">
+      <c r="I149" t="n">
+        <v>98</v>
+      </c>
+      <c r="J149" t="n">
+        <v>100</v>
+      </c>
+      <c r="K149" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>99</v>
+      </c>
+      <c r="D150" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G150" t="n">
+        <v>99</v>
+      </c>
+      <c r="H150" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>98</v>
+      </c>
+      <c r="J150" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K150" t="n">
         <v>97.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>99</v>
+      </c>
+      <c r="D151" t="n">
+        <v>98</v>
+      </c>
+      <c r="E151" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="I151" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>100</v>
+      </c>
+      <c r="C152" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H152" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J152" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>99.7</v>
       </c>
     </row>
   </sheetData>
